--- a/Example Data-20240208T214429Z-001/Example Data/ImageLabels.xlsx
+++ b/Example Data-20240208T214429Z-001/Example Data/ImageLabels.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="338">
   <si>
     <t>Image Name</t>
   </si>
@@ -389,562 +389,565 @@
     <t>(1) 18380579401063495.JPG</t>
   </si>
   <si>
+    <t>Motor Bike</t>
+  </si>
+  <si>
+    <t>(10) 17887803224903630.jpeg</t>
+  </si>
+  <si>
+    <t>Animals and Pets</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Animal, Mammal</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>Animal, Horse, Leisure Activities, Mammal, Person</t>
+  </si>
+  <si>
+    <t>Horseback Riding</t>
+  </si>
+  <si>
+    <t>Travel and Adventure</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>Leisure Activities</t>
+  </si>
+  <si>
+    <t>Mammal</t>
+  </si>
+  <si>
+    <t>(12) 17985809330117499.jpeg</t>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Fun, Person, Vacation</t>
+  </si>
+  <si>
+    <t>Road Trip</t>
+  </si>
+  <si>
+    <t>Nature and Outdoors</t>
+  </si>
+  <si>
+    <t>Outdoors</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Nature, Outdoors</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>Astronomy</t>
+  </si>
+  <si>
+    <t>Astronomy, Nature, Night, Outdoors</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>(13) 18013990822817757.jpeg</t>
+  </si>
+  <si>
+    <t>Vest</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Document, Text</t>
+  </si>
+  <si>
+    <t>Receipt</t>
+  </si>
+  <si>
+    <t>Id Cards</t>
+  </si>
+  <si>
+    <t>Document, Id Cards, Text</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Paper, Text</t>
+  </si>
+  <si>
+    <t>Business Card</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>(14) 17993584322154200.jpeg</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>Glove</t>
+  </si>
+  <si>
+    <t>Wildlife</t>
+  </si>
+  <si>
+    <t>Adult, Female, Person, Wedding, Woman</t>
+  </si>
+  <si>
+    <t>Bride</t>
+  </si>
+  <si>
+    <t>Events and Attractions</t>
+  </si>
+  <si>
+    <t>Wedding</t>
+  </si>
+  <si>
+    <t>Animal, Mammal, Wildlife</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>(15) 18346855723078911.jpeg</t>
+  </si>
+  <si>
+    <t>(16) 18379894042056715.jpeg</t>
+  </si>
+  <si>
+    <t>Photobombing</t>
+  </si>
+  <si>
+    <t>Everyday Objects</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>Shaker</t>
+  </si>
+  <si>
+    <t>(17) 17876557646942156.jpeg</t>
+  </si>
+  <si>
+    <t>Shorts</t>
+  </si>
+  <si>
+    <t>Body Part</t>
+  </si>
+  <si>
+    <t>Body Part, Hand, Person</t>
+  </si>
+  <si>
+    <t>Finger</t>
+  </si>
+  <si>
+    <t>Body Part, Person</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>(18) 17956303754673865.jpeg</t>
+  </si>
+  <si>
+    <t>(19) 18027245935589987.jpeg</t>
+  </si>
+  <si>
+    <t>(2) 18040499875507660.jpeg</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Adventure, Leisure Activities, Nature, Outdoors, Person, Snow, Sport</t>
+  </si>
+  <si>
+    <t>Snowboarding</t>
+  </si>
+  <si>
+    <t>(3) 18005670805793076.jpeg</t>
+  </si>
+  <si>
+    <t>Tools and Machinery</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Spoke</t>
+  </si>
+  <si>
+    <t>Clothing, Helmet</t>
+  </si>
+  <si>
+    <t>Hardhat</t>
+  </si>
+  <si>
+    <t>Crash Helmet</t>
+  </si>
+  <si>
+    <t>Wheel</t>
+  </si>
+  <si>
+    <t>Tire</t>
+  </si>
+  <si>
+    <t>Car, Car Wheel, Machine, Spoke, Tire, Transportation, Vehicle, Wheel</t>
+  </si>
+  <si>
+    <t>Alloy Wheel</t>
+  </si>
+  <si>
+    <t>Car, Machine, Tire, Transportation, Vehicle, Wheel</t>
+  </si>
+  <si>
+    <t>Car Wheel</t>
+  </si>
+  <si>
+    <t>(4) 17978197394393810.jpeg</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>Officer</t>
+  </si>
+  <si>
+    <t>Officer, Person</t>
+  </si>
+  <si>
+    <t>Police Officer</t>
+  </si>
+  <si>
+    <t>E-scooter</t>
+  </si>
+  <si>
+    <t>(6) 18030065674525036.jpeg</t>
+  </si>
+  <si>
+    <t>(8) 17963380910618789.jpeg</t>
+  </si>
+  <si>
+    <t>Transport and Logistics</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Asphalt</t>
+  </si>
+  <si>
+    <t>Tarmac</t>
+  </si>
+  <si>
+    <t>Walking</t>
+  </si>
+  <si>
+    <t>Freeway</t>
+  </si>
+  <si>
+    <t>Freeway, Road</t>
+  </si>
+  <si>
+    <t>Highway</t>
+  </si>
+  <si>
+    <t>Clothing, Footwear, Shoe</t>
+  </si>
+  <si>
+    <t>Sneaker</t>
+  </si>
+  <si>
+    <t>(2) ball-park-brand-mflmvznfdq8-unsplash.jpeg</t>
+  </si>
+  <si>
+    <t>Public Safety</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Flame</t>
+  </si>
+  <si>
+    <t>Fire, Flame</t>
+  </si>
+  <si>
+    <t>Bonfire</t>
+  </si>
+  <si>
+    <t>Expressions and Emotions</t>
+  </si>
+  <si>
+    <t>Face, Head, Person</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>IMG_0866 Large.jpeg</t>
+  </si>
+  <si>
+    <t>IMG_2318 Large.jpeg</t>
+  </si>
+  <si>
+    <t>Buildings and Architecture</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Plants and Flowers</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Home and Indoors</t>
+  </si>
+  <si>
+    <t>Indoors</t>
+  </si>
+  <si>
+    <t>IMG_2334 Large.jpeg</t>
+  </si>
+  <si>
+    <t>Architecture, Building</t>
+  </si>
+  <si>
+    <t>Office Building</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Colors and Visual Composition</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>IMG_2345 Large.jpeg</t>
+  </si>
+  <si>
+    <t>Conversation</t>
+  </si>
+  <si>
+    <t>Conversation, Person</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Computer, Electronics, Pc</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Computer, Electronics</t>
+  </si>
+  <si>
+    <t>Pc</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>IMG_3155.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3386 Large.jpeg</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>Airfield</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Aircraft, Transportation, Vehicle</t>
+  </si>
+  <si>
+    <t>Airplane</t>
+  </si>
+  <si>
+    <t>Aircraft, Airplane, Transportation, Vehicle</t>
+  </si>
+  <si>
+    <t>Airliner</t>
+  </si>
+  <si>
+    <t>IMG_3614 Large.jpeg</t>
+  </si>
+  <si>
+    <t>Architecture, Building, Outdoors</t>
+  </si>
+  <si>
+    <t>Shelter</t>
+  </si>
+  <si>
+    <t>Town</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>City, Road, Urban</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Neighborhood</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Garden</t>
+  </si>
+  <si>
+    <t>Garden, Nature, Outdoors</t>
+  </si>
+  <si>
+    <t>Arbour</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Walkway</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Countryside</t>
+  </si>
+  <si>
+    <t>Architecture, Building, Countryside, Nature, Outdoors, Rural</t>
+  </si>
+  <si>
+    <t>Hut</t>
+  </si>
+  <si>
+    <t>Countryside, Nature, Outdoors</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>{"Labels":[{"Name":"Adult","Confidence":99.83572387695312,"Instances":[{"BoundingBox":{"Width":0.192954421043396,"Height":0.43121615052223206,"Left":0.6683390736579895,"Top":0.3674837648868561},"Confidence":99.83572387695312},{"BoundingBox":{"Width":0.18122950196266174,"Height":0.4429079294204712,"Left":0.26018407940864563,"Top":0.35706260800361633},"Confidence":99.31685638427734}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Female","Confidence":99.83572387695312,"Instances":[{"BoundingBox":{"Width":0.192954421043396,"Height":0.43121615052223206,"Left":0.6683390736579895,"Top":0.3674837648868561},"Confidence":99.83572387695312}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Person","Confidence":99.83572387695312,"Instances":[{"BoundingBox":{"Width":0.192954421043396,"Height":0.43121615052223206,"Left":0.6683390736579895,"Top":0.3674837648868561},"Confidence":99.83572387695312},{"BoundingBox":{"Width":0.18122950196266174,"Height":0.4429079294204712,"Left":0.26018407940864563,"Top":0.35706260800361633},"Confidence":99.31685638427734},{"BoundingBox":{"Width":0.14015883207321167,"Height":0.12227996438741684,"Left":0.3545292317867279,"Top":0.8775538802146912},"Confidence":95.30409240722656},{"BoundingBox":{"Width":0.1345016360282898,"Height":0.06534743309020996,"Left":0.25382575392723083,"Top":0.9346461296081543},"Confidence":93.55799865722656},{"BoundingBox":{"Width":0.10390166938304901,"Height":0.09648275375366211,"Left":0.1565963178873062,"Top":0.9024130702018738},"Confidence":84.1658935546875},{"BoundingBox":{"Width":0.13032229244709015,"Height":0.11992955207824707,"Left":0.021330056712031364,"Top":0.8582238554954529},"Confidence":83.78968048095703},{"BoundingBox":{"Width":0.13512563705444336,"Height":0.05836741253733635,"Left":0.10291197150945663,"Top":0.9415339827537537},"Confidence":73.56173706054688}],"Parents":[],"Aliases":[{"Name":"Human"}],"Categories":[{"Name":"Person Description"}]},{"Name":"Woman","Confidence":99.83572387695312,"Instances":[{"BoundingBox":{"Width":0.192954421043396,"Height":0.43121615052223206,"Left":0.6683390736579895,"Top":0.3674837648868561},"Confidence":99.83572387695312}],"Parents":[{"Name":"Adult"},{"Name":"Female"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Male","Confidence":99.31685638427734,"Instances":[{"BoundingBox":{"Width":0.18122950196266174,"Height":0.4429079294204712,"Left":0.26018407940864563,"Top":0.35706260800361633},"Confidence":99.31685638427734}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Man","Confidence":99.31685638427734,"Instances":[{"BoundingBox":{"Width":0.18122950196266174,"Height":0.4429079294204712,"Left":0.26018407940864563,"Top":0.35706260800361633},"Confidence":99.31685638427734}],"Parents":[{"Name":"Adult"},{"Name":"Male"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Helmet","Confidence":99.12734985351562,"Instances":[{"BoundingBox":{"Width":0.09109117090702057,"Height":0.09130263328552246,"Left":0.19340015947818756,"Top":0.7095215320587158},"Confidence":99.12734985351562}],"Parents":[],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Crowd","Confidence":97.438720703125,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Clothing","Confidence":83.79560852050781,"Instances":[],"Parents":[],"Aliases":[{"Name":"Apparel"}],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Coat","Confidence":83.79560852050781,"Instances":[{"BoundingBox":{"Width":0.1632271111011505,"Height":0.22559142112731934,"Left":0.2623204290866852,"Top":0.40503254532814026},"Confidence":83.79560852050781}],"Parents":[{"Name":"Clothing"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Footwear","Confidence":80.74674987792969,"Instances":[],"Parents":[{"Name":"Clothing"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Shoe","Confidence":80.74674987792969,"Instances":[{"BoundingBox":{"Width":0.06100428104400635,"Height":0.06882969290018082,"Left":0.6720225811004639,"Top":0.7321212887763977},"Confidence":80.74674987792969}],"Parents":[{"Name":"Clothing"},{"Name":"Footwear"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Face","Confidence":79.30259704589844,"Instances":[],"Parents":[{"Name":"Head"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Head","Confidence":79.30259704589844,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Accessories","Confidence":73.90047454833984,"Instances":[],"Parents":[],"Aliases":[{"Name":"Accessory"}],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Bag","Confidence":73.90047454833984,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Handbag","Confidence":73.90047454833984,"Instances":[{"BoundingBox":{"Width":0.09782451391220093,"Height":0.09294597059488297,"Left":0.8236474990844727,"Top":0.7106881737709045},"Confidence":73.90047454833984}],"Parents":[{"Name":"Accessories"},{"Name":"Bag"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Glasses","Confidence":71.05463409423828,"Instances":[{"BoundingBox":{"Width":0.029949158430099487,"Height":0.025662502273917198,"Left":0.44289109110832214,"Top":0.9593483805656433},"Confidence":71.05463409423828}],"Parents":[{"Name":"Accessories"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]}],"LabelModelVersion":"3.0"}</t>
+  </si>
+  <si>
+    <t>{"Labels":[{"Name":"Face","Confidence":99.64718627929688,"Instances":[],"Parents":[{"Name":"Head"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Head","Confidence":99.64718627929688,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Person","Confidence":99.64718627929688,"Instances":[{"BoundingBox":{"Width":0.46839720010757446,"Height":0.7605031132698059,"Left":0,"Top":0.23805584013462067},"Confidence":98.51455688476562},{"BoundingBox":{"Width":0.6122530698776245,"Height":0.8400148749351501,"Left":0.31238240003585815,"Top":0.15744124352931976},"Confidence":98.27896118164062},{"BoundingBox":{"Width":0.245716392993927,"Height":0.9351828098297119,"Left":0.7526071667671204,"Top":0.0638553574681282},"Confidence":97.83817291259766},{"BoundingBox":{"Width":0.1771388053894043,"Height":0.3865736722946167,"Left":0.3667478561401367,"Top":0.098927341401577},"Confidence":96.98294830322266},{"BoundingBox":{"Width":0.13112112879753113,"Height":0.25492551922798157,"Left":0.001765613560564816,"Top":0.23833513259887695},"Confidence":95.48399353027344},{"BoundingBox":{"Width":0.13264603912830353,"Height":0.2144067883491516,"Left":0.22578991949558258,"Top":0.0008120250422507524},"Confidence":93.0904312133789},{"BoundingBox":{"Width":0.13028788566589355,"Height":0.13038122653961182,"Left":0.11815553158521652,"Top":0.17969921231269836},"Confidence":92.86677551269531},{"BoundingBox":{"Width":0.09789599478244781,"Height":0.10151953995227814,"Left":0.1885678619146347,"Top":0.1451772153377533},"Confidence":91.76555633544922},{"BoundingBox":{"Width":0.09583324193954468,"Height":0.09553047269582748,"Left":0.6059808731079102,"Top":0.09219247847795486},"Confidence":91.24443817138672},{"BoundingBox":{"Width":0.09435704350471497,"Height":0.1321815699338913,"Left":0.004929065704345703,"Top":0.16427646577358246},"Confidence":87.12005615234375},{"BoundingBox":{"Width":0.09804731607437134,"Height":0.11845797300338745,"Left":0.08416102826595306,"Top":0.12837696075439453},"Confidence":86.84342193603516},{"BoundingBox":{"Width":0.09877778589725494,"Height":0.3452380299568176,"Left":0,"Top":0.41387784481048584},"Confidence":83.3096923828125},{"BoundingBox":{"Width":0.08791801333427429,"Height":0.2209157943725586,"Left":0.33410415053367615,"Top":0.14215856790542603},"Confidence":77.15809631347656},{"BoundingBox":{"Width":0.3322967290878296,"Height":0.15709927678108215,"Left":0.38978564739227295,"Top":0},"Confidence":76.75592041015625}],"Parents":[],"Aliases":[{"Name":"Human"}],"Categories":[{"Name":"Person Description"}]},{"Name":"Photography","Confidence":99.64718627929688,"Instances":[],"Parents":[],"Aliases":[{"Name":"Photo"}],"Categories":[{"Name":"Hobbies and Interests"}]},{"Name":"Portrait","Confidence":99.64718627929688,"Instances":[],"Parents":[{"Name":"Face"},{"Name":"Head"},{"Name":"Person"},{"Name":"Photography"}],"Aliases":[],"Categories":[{"Name":"Hobbies and Interests"}]},{"Name":"Lady","Confidence":98.83185577392578,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Adult","Confidence":98.51455688476562,"Instances":[{"BoundingBox":{"Width":0.46839720010757446,"Height":0.7605031132698059,"Left":0,"Top":0.23805584013462067},"Confidence":98.51455688476562},{"BoundingBox":{"Width":0.1771388053894043,"Height":0.3865736722946167,"Left":0.3667478561401367,"Top":0.098927341401577},"Confidence":96.98294830322266},{"BoundingBox":{"Width":0.13264603912830353,"Height":0.2144067883491516,"Left":0.22578991949558258,"Top":0.0008120250422507524},"Confidence":93.0904312133789}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Male","Confidence":98.51455688476562,"Instances":[{"BoundingBox":{"Width":0.46839720010757446,"Height":0.7605031132698059,"Left":0,"Top":0.23805584013462067},"Confidence":98.51455688476562},{"BoundingBox":{"Width":0.1771388053894043,"Height":0.3865736722946167,"Left":0.3667478561401367,"Top":0.098927341401577},"Confidence":96.98294830322266}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Man","Confidence":98.51455688476562,"Instances":[{"BoundingBox":{"Width":0.46839720010757446,"Height":0.7605031132698059,"Left":0,"Top":0.23805584013462067},"Confidence":98.51455688476562},{"BoundingBox":{"Width":0.1771388053894043,"Height":0.3865736722946167,"Left":0.3667478561401367,"Top":0.098927341401577},"Confidence":96.98294830322266}],"Parents":[{"Name":"Adult"},{"Name":"Male"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Clothing","Confidence":97.41807556152344,"Instances":[],"Parents":[],"Aliases":[{"Name":"Apparel"}],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Coat","Confidence":97.41807556152344,"Instances":[],"Parents":[{"Name":"Clothing"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Crowd","Confidence":94.78363037109375,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Female","Confidence":93.0904312133789,"Instances":[{"BoundingBox":{"Width":0.13264603912830353,"Height":0.2144067883491516,"Left":0.22578991949558258,"Top":0.0008120250422507524},"Confidence":93.0904312133789}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Woman","Confidence":93.0904312133789,"Instances":[{"BoundingBox":{"Width":0.13264603912830353,"Height":0.2144067883491516,"Left":0.22578991949558258,"Top":0.0008120250422507524},"Confidence":93.0904312133789}],"Parents":[{"Name":"Adult"},{"Name":"Female"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"People","Confidence":84.20561218261719,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Jacket","Confidence":76.02136993408203,"Instances":[],"Parents":[{"Name":"Clothing"},{"Name":"Coat"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Audience","Confidence":75.57604217529297,"Instances":[],"Parents":[{"Name":"Crowd"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Performing Arts"}]}],"LabelModelVersion":"3.0"}</t>
+  </si>
+  <si>
+    <t>{"Labels":[{"Name":"Baseball Cap","Confidence":100,"Instances":[],"Parents":[{"Name":"Cap"},{"Name":"Clothing"},{"Name":"Hat"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Cap","Confidence":100,"Instances":[],"Parents":[{"Name":"Clothing"},{"Name":"Hat"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Clothing","Confidence":100,"Instances":[],"Parents":[],"Aliases":[{"Name":"Apparel"}],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Hat","Confidence":100,"Instances":[{"BoundingBox":{"Width":0.416428804397583,"Height":0.1995067596435547,"Left":0.07320834696292877,"Top":0.6898594498634338},"Confidence":98.36378479003906},{"BoundingBox":{"Width":0.4166768193244934,"Height":0.1978195756673813,"Left":0.5099740028381348,"Top":0.6914522647857666},"Confidence":97.71554565429688}],"Parents":[{"Name":"Clothing"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Advertisement","Confidence":99.99974822998047,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Poster","Confidence":99.99796295166016,"Instances":[],"Parents":[{"Name":"Advertisement"}],"Aliases":[{"Name":"Brochure"},{"Name":"Flyer"}],"Categories":[{"Name":"Furniture and Furnishings"}]},{"Name":"QR Code","Confidence":72.46487426757812,"Instances":[{"BoundingBox":{"Width":0.04643523693084717,"Height":0.027322161942720413,"Left":0.9122753739356995,"Top":0.9287002086639404},"Confidence":72.46487426757812}],"Parents":[],"Aliases":[],"Categories":[{"Name":"Technology and Computing"}]}],"LabelModelVersion":"3.0"}</t>
+  </si>
+  <si>
+    <t>{"Labels":[{"Name":"Advertisement","Confidence":99.99983215332031,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Poster","Confidence":99.99974822998047,"Instances":[],"Parents":[{"Name":"Advertisement"}],"Aliases":[{"Name":"Brochure"},{"Name":"Flyer"}],"Categories":[{"Name":"Furniture and Furnishings"}]},{"Name":"Scoreboard","Confidence":98.623046875,"Instances":[{"BoundingBox":{"Width":0.9999999403953552,"Height":0.998986005783081,"Left":0,"Top":0.0010140228550881147},"Confidence":98.623046875}],"Parents":[],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"Text","Confidence":74.82058715820312,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]}],"LabelModelVersion":"3.0"}</t>
+  </si>
+  <si>
+    <t>{"Labels":[{"Name":"Chart","Confidence":99.41301727294922,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Plot","Confidence":99.41301727294922,"Instances":[],"Parents":[{"Name":"Chart"}],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Page","Confidence":99.12903594970703,"Instances":[],"Parents":[{"Name":"Text"}],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Text","Confidence":99.12903594970703,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Number","Confidence":97.36262512207031,"Instances":[],"Parents":[{"Name":"Symbol"},{"Name":"Text"}],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Symbol","Confidence":97.36262512207031,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Symbols and Flags"}]},{"Name":"Measurements","Confidence":75.46807098388672,"Instances":[],"Parents":[{"Name":"Chart"},{"Name":"Plot"}],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]}],"LabelModelVersion":"3.0"}</t>
+  </si>
+  <si>
+    <t>{"Labels":[{"Name":"Ball","Confidence":98.80609130859375,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"Rugby","Confidence":98.80609130859375,"Instances":[],"Parents":[{"Name":"Sport"}],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"Rugby Ball","Confidence":98.80609130859375,"Instances":[{"BoundingBox":{"Width":0.49135157465934753,"Height":0.3177417516708374,"Left":0.4996698796749115,"Top":0.27240675687789917},"Confidence":98.80609130859375}],"Parents":[{"Name":"Ball"},{"Name":"Rugby"},{"Name":"Sport"}],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"Sport","Confidence":98.80609130859375,"Instances":[],"Parents":[],"Aliases":[{"Name":"Sports"}],"Categories":[{"Name":"Sports"}]},{"Name":"Face","Confidence":96.71920776367188,"Instances":[],"Parents":[{"Name":"Head"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Head","Confidence":96.71920776367188,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Person","Confidence":96.71920776367188,"Instances":[{"BoundingBox":{"Width":0.49983322620391846,"Height":0.9446393251419067,"Left":0.49914348125457764,"Top":0.053643301129341125},"Confidence":96.37016296386719}],"Parents":[],"Aliases":[{"Name":"Human"}],"Categories":[{"Name":"Person Description"}]},{"Name":"Photography","Confidence":96.71920776367188,"Instances":[],"Parents":[],"Aliases":[{"Name":"Photo"}],"Categories":[{"Name":"Hobbies and Interests"}]},{"Name":"Portrait","Confidence":96.71920776367188,"Instances":[],"Parents":[{"Name":"Face"},{"Name":"Head"},{"Name":"Person"},{"Name":"Photography"}],"Aliases":[],"Categories":[{"Name":"Hobbies and Interests"}]},{"Name":"Boy","Confidence":96.37016296386719,"Instances":[{"BoundingBox":{"Width":0.49983322620391846,"Height":0.9446393251419067,"Left":0.49914348125457764,"Top":0.053643301129341125},"Confidence":96.37016296386719}],"Parents":[{"Name":"Male"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Child","Confidence":96.37016296386719,"Instances":[{"BoundingBox":{"Width":0.49983322620391846,"Height":0.9446393251419067,"Left":0.49914348125457764,"Top":0.053643301129341125},"Confidence":96.37016296386719}],"Parents":[{"Name":"Person"}],"Aliases":[{"Name":"Kid"}],"Categories":[{"Name":"Person Description"}]},{"Name":"Male","Confidence":96.37016296386719,"Instances":[{"BoundingBox":{"Width":0.49983322620391846,"Height":0.9446393251419067,"Left":0.49914348125457764,"Top":0.053643301129341125},"Confidence":96.37016296386719}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"American Football","Confidence":93.31439208984375,"Instances":[],"Parents":[{"Name":"Football"},{"Name":"Sport"}],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"American Football (Ball)","Confidence":93.31439208984375,"Instances":[{"BoundingBox":{"Width":0.3604709208011627,"Height":0.255810022354126,"Left":0.00019891739066224545,"Top":0.39653563499450684},"Confidence":93.31439208984375}],"Parents":[{"Name":"American Football"},{"Name":"Ball"},{"Name":"Football"},{"Name":"Sport"}],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"Football","Confidence":93.31439208984375,"Instances":[],"Parents":[{"Name":"Sport"}],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"Playing American Football","Confidence":92.6055908203125,"Instances":[],"Parents":[{"Name":"American Football"},{"Name":"Football"},{"Name":"Person"},{"Name":"Sport"}],"Aliases":[],"Categories":[{"Name":"Actions"}]},{"Name":"Helmet","Confidence":85.5241928100586,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"People","Confidence":75.10466003417969,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Clothing","Confidence":68.45476531982422,"Instances":[],"Parents":[],"Aliases":[{"Name":"Apparel"}],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"T-Shirt","Confidence":68.45476531982422,"Instances":[],"Parents":[{"Name":"Clothing"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]}],"LabelModelVersion":"3.0"}</t>
+  </si>
+  <si>
+    <t>{"Labels":[{"Name":"Food","Confidence":99.97188568115234,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]},{"Name":"Food Presentation","Confidence":99.97188568115234,"Instances":[],"Parents":[{"Name":"Food"}],"Aliases":[],"Categories":[{"Name":"Kitchen and Dining"}]},{"Name":"Pizza","Confidence":82.22334289550781,"Instances":[{"BoundingBox":{"Width":0.36171954870224,"Height":0.4313463568687439,"Left":0.23440223932266235,"Top":0.19046330451965332},"Confidence":82.22334289550781}],"Parents":[{"Name":"Food"}],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]},{"Name":"Cutlery","Confidence":73.86701202392578,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Kitchen and Dining"}]},{"Name":"Spoon","Confidence":73.86701202392578,"Instances":[{"BoundingBox":{"Width":0.16044872999191284,"Height":0.14732542634010315,"Left":0.8391396999359131,"Top":0.4454461634159088},"Confidence":73.86701202392578}],"Parents":[{"Name":"Cutlery"}],"Aliases":[],"Categories":[{"Name":"Kitchen and Dining"}]},{"Name":"Bread","Confidence":72.97765350341797,"Instances":[],"Parents":[{"Name":"Food"}],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]},{"Name":"Guacamole","Confidence":68.84996032714844,"Instances":[],"Parents":[{"Name":"Food"}],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]},{"Name":"Pancake","Confidence":66.47975158691406,"Instances":[],"Parents":[{"Name":"Bread"},{"Name":"Food"}],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]}],"LabelModelVersion":"3.0"}</t>
+  </si>
+  <si>
+    <t>{"Labels":[{"Name":"Bbq","Confidence":98.61418914794922,"Instances":[],"Parents":[{"Name":"Cooking"},{"Name":"Food"},{"Name":"Grilling"}],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]},{"Name":"Cooking","Confidence":98.61418914794922,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Kitchen and Dining"}]},{"Name":"Food","Confidence":98.61418914794922,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]},{"Name":"Grilling","Confidence":98.61418914794922,"Instances":[],"Parents":[{"Name":"Cooking"}],"Aliases":[],"Categories":[{"Name":"Kitchen and Dining"}]},{"Name":"Advertisement","Confidence":94.29690551757812,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Person","Confidence":93.6300048828125,"Instances":[{"BoundingBox":{"Width":0.06542432308197021,"Height":0.19547852873802185,"Left":0.39886242151260376,"Top":0.6567841172218323},"Confidence":93.6300048828125}],"Parents":[],"Aliases":[{"Name":"Human"}],"Categories":[{"Name":"Person Description"}]},{"Name":"Car","Confidence":78.14362335205078,"Instances":[{"BoundingBox":{"Width":0.1560196876525879,"Height":0.1638486236333847,"Left":0.3341839611530304,"Top":0.17001456022262573},"Confidence":78.14362335205078},{"BoundingBox":{"Width":0.6318696737289429,"Height":0.49243322014808655,"Left":0.34626930952072144,"Top":0.0031852531246840954},"Confidence":71.74896240234375}],"Parents":[{"Name":"Transportation"},{"Name":"Vehicle"}],"Aliases":[{"Name":"Automobile"}],"Categories":[{"Name":"Vehicles and Automotive"}]},{"Name":"Transportation","Confidence":78.14362335205078,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Vehicles and Automotive"}]},{"Name":"Vehicle","Confidence":78.14362335205078,"Instances":[],"Parents":[{"Name":"Transportation"}],"Aliases":[],"Categories":[{"Name":"Vehicles and Automotive"}]},{"Name":"Device","Confidence":71.32793426513672,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Technology and Computing"}]},{"Name":"Electrical Device","Confidence":70.09559631347656,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Technology and Computing"}]},{"Name":"Appliance","Confidence":68.57816314697266,"Instances":[],"Parents":[{"Name":"Device"},{"Name":"Electrical Device"}],"Aliases":[],"Categories":[{"Name":"Home Appliances"}]}],"LabelModelVersion":"3.0"}</t>
+  </si>
+  <si>
+    <t>(1) 18380579401063495.webp</t>
+  </si>
+  <si>
     <t>Error</t>
-  </si>
-  <si>
-    <t>(10) 17887803224903630.jpeg</t>
-  </si>
-  <si>
-    <t>Animals and Pets</t>
-  </si>
-  <si>
-    <t>Animal</t>
-  </si>
-  <si>
-    <t>Animal, Mammal</t>
-  </si>
-  <si>
-    <t>Horse</t>
-  </si>
-  <si>
-    <t>Animal, Horse, Leisure Activities, Mammal, Person</t>
-  </si>
-  <si>
-    <t>Horseback Riding</t>
-  </si>
-  <si>
-    <t>Travel and Adventure</t>
-  </si>
-  <si>
-    <t>Recreation</t>
-  </si>
-  <si>
-    <t>Leisure Activities</t>
-  </si>
-  <si>
-    <t>Mammal</t>
-  </si>
-  <si>
-    <t>(12) 17985809330117499.jpeg</t>
-  </si>
-  <si>
-    <t>Fun</t>
-  </si>
-  <si>
-    <t>Vacation</t>
-  </si>
-  <si>
-    <t>Fun, Person, Vacation</t>
-  </si>
-  <si>
-    <t>Road Trip</t>
-  </si>
-  <si>
-    <t>Nature and Outdoors</t>
-  </si>
-  <si>
-    <t>Outdoors</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>Nature, Outdoors</t>
-  </si>
-  <si>
-    <t>Sky</t>
-  </si>
-  <si>
-    <t>Motorcycle</t>
-  </si>
-  <si>
-    <t>Astronomy</t>
-  </si>
-  <si>
-    <t>Astronomy, Nature, Night, Outdoors</t>
-  </si>
-  <si>
-    <t>Moon</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>(13) 18013990822817757.jpeg</t>
-  </si>
-  <si>
-    <t>Vest</t>
-  </si>
-  <si>
-    <t>Shirt</t>
-  </si>
-  <si>
-    <t>Document</t>
-  </si>
-  <si>
-    <t>Document, Text</t>
-  </si>
-  <si>
-    <t>Receipt</t>
-  </si>
-  <si>
-    <t>Id Cards</t>
-  </si>
-  <si>
-    <t>Document, Id Cards, Text</t>
-  </si>
-  <si>
-    <t>Passport</t>
-  </si>
-  <si>
-    <t>Credit Card</t>
-  </si>
-  <si>
-    <t>Paper, Text</t>
-  </si>
-  <si>
-    <t>Business Card</t>
-  </si>
-  <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>(14) 17993584322154200.jpeg</t>
-  </si>
-  <si>
-    <t>Bird</t>
-  </si>
-  <si>
-    <t>Glove</t>
-  </si>
-  <si>
-    <t>Wildlife</t>
-  </si>
-  <si>
-    <t>Adult, Female, Person, Wedding, Woman</t>
-  </si>
-  <si>
-    <t>Bride</t>
-  </si>
-  <si>
-    <t>Events and Attractions</t>
-  </si>
-  <si>
-    <t>Wedding</t>
-  </si>
-  <si>
-    <t>Animal, Mammal, Wildlife</t>
-  </si>
-  <si>
-    <t>Lion</t>
-  </si>
-  <si>
-    <t>(15) 18346855723078911.jpeg</t>
-  </si>
-  <si>
-    <t>(16) 18379894042056715.jpeg</t>
-  </si>
-  <si>
-    <t>Photobombing</t>
-  </si>
-  <si>
-    <t>Everyday Objects</t>
-  </si>
-  <si>
-    <t>Bottle</t>
-  </si>
-  <si>
-    <t>Shaker</t>
-  </si>
-  <si>
-    <t>(17) 17876557646942156.jpeg</t>
-  </si>
-  <si>
-    <t>Shorts</t>
-  </si>
-  <si>
-    <t>Body Part</t>
-  </si>
-  <si>
-    <t>Body Part, Hand, Person</t>
-  </si>
-  <si>
-    <t>Finger</t>
-  </si>
-  <si>
-    <t>Body Part, Person</t>
-  </si>
-  <si>
-    <t>Hand</t>
-  </si>
-  <si>
-    <t>(18) 17956303754673865.jpeg</t>
-  </si>
-  <si>
-    <t>(19) 18027245935589987.jpeg</t>
-  </si>
-  <si>
-    <t>(2) 18040499875507660.jpeg</t>
-  </si>
-  <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Adventure, Leisure Activities, Nature, Outdoors, Person, Snow, Sport</t>
-  </si>
-  <si>
-    <t>Snowboarding</t>
-  </si>
-  <si>
-    <t>(3) 18005670805793076.jpeg</t>
-  </si>
-  <si>
-    <t>Tools and Machinery</t>
-  </si>
-  <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>Motor</t>
-  </si>
-  <si>
-    <t>Spoke</t>
-  </si>
-  <si>
-    <t>Clothing, Helmet</t>
-  </si>
-  <si>
-    <t>Hardhat</t>
-  </si>
-  <si>
-    <t>Crash Helmet</t>
-  </si>
-  <si>
-    <t>Wheel</t>
-  </si>
-  <si>
-    <t>Tire</t>
-  </si>
-  <si>
-    <t>Car, Car Wheel, Machine, Spoke, Tire, Transportation, Vehicle, Wheel</t>
-  </si>
-  <si>
-    <t>Alloy Wheel</t>
-  </si>
-  <si>
-    <t>Car, Machine, Tire, Transportation, Vehicle, Wheel</t>
-  </si>
-  <si>
-    <t>Car Wheel</t>
-  </si>
-  <si>
-    <t>(4) 17978197394393810.jpeg</t>
-  </si>
-  <si>
-    <t>Profession</t>
-  </si>
-  <si>
-    <t>Officer</t>
-  </si>
-  <si>
-    <t>Officer, Person</t>
-  </si>
-  <si>
-    <t>Police Officer</t>
-  </si>
-  <si>
-    <t>E-scooter</t>
-  </si>
-  <si>
-    <t>(6) 18030065674525036.jpeg</t>
-  </si>
-  <si>
-    <t>(8) 17963380910618789.jpeg</t>
-  </si>
-  <si>
-    <t>Transport and Logistics</t>
-  </si>
-  <si>
-    <t>Road</t>
-  </si>
-  <si>
-    <t>Asphalt</t>
-  </si>
-  <si>
-    <t>Tarmac</t>
-  </si>
-  <si>
-    <t>Walking</t>
-  </si>
-  <si>
-    <t>Freeway</t>
-  </si>
-  <si>
-    <t>Freeway, Road</t>
-  </si>
-  <si>
-    <t>Highway</t>
-  </si>
-  <si>
-    <t>Clothing, Footwear, Shoe</t>
-  </si>
-  <si>
-    <t>Sneaker</t>
-  </si>
-  <si>
-    <t>(2) ball-park-brand-mflmvznfdq8-unsplash.jpeg</t>
-  </si>
-  <si>
-    <t>Public Safety</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Flame</t>
-  </si>
-  <si>
-    <t>Fire, Flame</t>
-  </si>
-  <si>
-    <t>Bonfire</t>
-  </si>
-  <si>
-    <t>Expressions and Emotions</t>
-  </si>
-  <si>
-    <t>Face, Head, Person</t>
-  </si>
-  <si>
-    <t>Happy</t>
-  </si>
-  <si>
-    <t>IMG_0866 Large.jpeg</t>
-  </si>
-  <si>
-    <t>IMG_2318 Large.jpeg</t>
-  </si>
-  <si>
-    <t>Buildings and Architecture</t>
-  </si>
-  <si>
-    <t>Architecture</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Plants and Flowers</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>Home and Indoors</t>
-  </si>
-  <si>
-    <t>Indoors</t>
-  </si>
-  <si>
-    <t>IMG_2334 Large.jpeg</t>
-  </si>
-  <si>
-    <t>Architecture, Building</t>
-  </si>
-  <si>
-    <t>Office Building</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>Factory</t>
-  </si>
-  <si>
-    <t>Housing</t>
-  </si>
-  <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>Colors and Visual Composition</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>IMG_2345 Large.jpeg</t>
-  </si>
-  <si>
-    <t>Conversation</t>
-  </si>
-  <si>
-    <t>Conversation, Person</t>
-  </si>
-  <si>
-    <t>Interview</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>Computer, Electronics, Pc</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Computer, Electronics</t>
-  </si>
-  <si>
-    <t>Pc</t>
-  </si>
-  <si>
-    <t>Furniture</t>
-  </si>
-  <si>
-    <t>Chair</t>
-  </si>
-  <si>
-    <t>IMG_3155.JPG</t>
-  </si>
-  <si>
-    <t>IMG_3386 Large.jpeg</t>
-  </si>
-  <si>
-    <t>Airport</t>
-  </si>
-  <si>
-    <t>Airfield</t>
-  </si>
-  <si>
-    <t>Aircraft</t>
-  </si>
-  <si>
-    <t>Aircraft, Transportation, Vehicle</t>
-  </si>
-  <si>
-    <t>Airplane</t>
-  </si>
-  <si>
-    <t>Aircraft, Airplane, Transportation, Vehicle</t>
-  </si>
-  <si>
-    <t>Airliner</t>
-  </si>
-  <si>
-    <t>IMG_3614 Large.jpeg</t>
-  </si>
-  <si>
-    <t>Architecture, Building, Outdoors</t>
-  </si>
-  <si>
-    <t>Shelter</t>
-  </si>
-  <si>
-    <t>Town</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>City, Road, Urban</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>Neighborhood</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Garden</t>
-  </si>
-  <si>
-    <t>Garden, Nature, Outdoors</t>
-  </si>
-  <si>
-    <t>Arbour</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>Walkway</t>
-  </si>
-  <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
-    <t>Countryside</t>
-  </si>
-  <si>
-    <t>Architecture, Building, Countryside, Nature, Outdoors, Rural</t>
-  </si>
-  <si>
-    <t>Hut</t>
-  </si>
-  <si>
-    <t>Countryside, Nature, Outdoors</t>
-  </si>
-  <si>
-    <t>Rural</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>{"Labels":[{"Name":"Adult","Confidence":99.83572387695312,"Instances":[{"BoundingBox":{"Width":0.192954421043396,"Height":0.43121615052223206,"Left":0.6683390736579895,"Top":0.3674837648868561},"Confidence":99.83572387695312},{"BoundingBox":{"Width":0.18122950196266174,"Height":0.4429079294204712,"Left":0.26018407940864563,"Top":0.35706260800361633},"Confidence":99.31685638427734}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Female","Confidence":99.83572387695312,"Instances":[{"BoundingBox":{"Width":0.192954421043396,"Height":0.43121615052223206,"Left":0.6683390736579895,"Top":0.3674837648868561},"Confidence":99.83572387695312}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Person","Confidence":99.83572387695312,"Instances":[{"BoundingBox":{"Width":0.192954421043396,"Height":0.43121615052223206,"Left":0.6683390736579895,"Top":0.3674837648868561},"Confidence":99.83572387695312},{"BoundingBox":{"Width":0.18122950196266174,"Height":0.4429079294204712,"Left":0.26018407940864563,"Top":0.35706260800361633},"Confidence":99.31685638427734},{"BoundingBox":{"Width":0.14015883207321167,"Height":0.12227996438741684,"Left":0.3545292317867279,"Top":0.8775538802146912},"Confidence":95.30409240722656},{"BoundingBox":{"Width":0.1345016360282898,"Height":0.06534743309020996,"Left":0.25382575392723083,"Top":0.9346461296081543},"Confidence":93.55799865722656},{"BoundingBox":{"Width":0.10390166938304901,"Height":0.09648275375366211,"Left":0.1565963178873062,"Top":0.9024130702018738},"Confidence":84.1658935546875},{"BoundingBox":{"Width":0.13032229244709015,"Height":0.11992955207824707,"Left":0.021330056712031364,"Top":0.8582238554954529},"Confidence":83.78968048095703},{"BoundingBox":{"Width":0.13512563705444336,"Height":0.05836741253733635,"Left":0.10291197150945663,"Top":0.9415339827537537},"Confidence":73.56173706054688}],"Parents":[],"Aliases":[{"Name":"Human"}],"Categories":[{"Name":"Person Description"}]},{"Name":"Woman","Confidence":99.83572387695312,"Instances":[{"BoundingBox":{"Width":0.192954421043396,"Height":0.43121615052223206,"Left":0.6683390736579895,"Top":0.3674837648868561},"Confidence":99.83572387695312}],"Parents":[{"Name":"Adult"},{"Name":"Female"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Male","Confidence":99.31685638427734,"Instances":[{"BoundingBox":{"Width":0.18122950196266174,"Height":0.4429079294204712,"Left":0.26018407940864563,"Top":0.35706260800361633},"Confidence":99.31685638427734}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Man","Confidence":99.31685638427734,"Instances":[{"BoundingBox":{"Width":0.18122950196266174,"Height":0.4429079294204712,"Left":0.26018407940864563,"Top":0.35706260800361633},"Confidence":99.31685638427734}],"Parents":[{"Name":"Adult"},{"Name":"Male"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Helmet","Confidence":99.12734985351562,"Instances":[{"BoundingBox":{"Width":0.09109117090702057,"Height":0.09130263328552246,"Left":0.19340015947818756,"Top":0.7095215320587158},"Confidence":99.12734985351562}],"Parents":[],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Crowd","Confidence":97.438720703125,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Clothing","Confidence":83.79560852050781,"Instances":[],"Parents":[],"Aliases":[{"Name":"Apparel"}],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Coat","Confidence":83.79560852050781,"Instances":[{"BoundingBox":{"Width":0.1632271111011505,"Height":0.22559142112731934,"Left":0.2623204290866852,"Top":0.40503254532814026},"Confidence":83.79560852050781}],"Parents":[{"Name":"Clothing"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Footwear","Confidence":80.74674987792969,"Instances":[],"Parents":[{"Name":"Clothing"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Shoe","Confidence":80.74674987792969,"Instances":[{"BoundingBox":{"Width":0.06100428104400635,"Height":0.06882969290018082,"Left":0.6720225811004639,"Top":0.7321212887763977},"Confidence":80.74674987792969}],"Parents":[{"Name":"Clothing"},{"Name":"Footwear"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Face","Confidence":79.30259704589844,"Instances":[],"Parents":[{"Name":"Head"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Head","Confidence":79.30259704589844,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Accessories","Confidence":73.90047454833984,"Instances":[],"Parents":[],"Aliases":[{"Name":"Accessory"}],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Bag","Confidence":73.90047454833984,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Handbag","Confidence":73.90047454833984,"Instances":[{"BoundingBox":{"Width":0.09782451391220093,"Height":0.09294597059488297,"Left":0.8236474990844727,"Top":0.7106881737709045},"Confidence":73.90047454833984}],"Parents":[{"Name":"Accessories"},{"Name":"Bag"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Glasses","Confidence":71.05463409423828,"Instances":[{"BoundingBox":{"Width":0.029949158430099487,"Height":0.025662502273917198,"Left":0.44289109110832214,"Top":0.9593483805656433},"Confidence":71.05463409423828}],"Parents":[{"Name":"Accessories"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]}],"LabelModelVersion":"3.0"}</t>
-  </si>
-  <si>
-    <t>{"Labels":[{"Name":"Face","Confidence":99.64718627929688,"Instances":[],"Parents":[{"Name":"Head"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Head","Confidence":99.64718627929688,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Person","Confidence":99.64718627929688,"Instances":[{"BoundingBox":{"Width":0.46839720010757446,"Height":0.7605031132698059,"Left":0,"Top":0.23805584013462067},"Confidence":98.51455688476562},{"BoundingBox":{"Width":0.6122530698776245,"Height":0.8400148749351501,"Left":0.31238240003585815,"Top":0.15744124352931976},"Confidence":98.27896118164062},{"BoundingBox":{"Width":0.245716392993927,"Height":0.9351828098297119,"Left":0.7526071667671204,"Top":0.0638553574681282},"Confidence":97.83817291259766},{"BoundingBox":{"Width":0.1771388053894043,"Height":0.3865736722946167,"Left":0.3667478561401367,"Top":0.098927341401577},"Confidence":96.98294830322266},{"BoundingBox":{"Width":0.13112112879753113,"Height":0.25492551922798157,"Left":0.001765613560564816,"Top":0.23833513259887695},"Confidence":95.48399353027344},{"BoundingBox":{"Width":0.13264603912830353,"Height":0.2144067883491516,"Left":0.22578991949558258,"Top":0.0008120250422507524},"Confidence":93.0904312133789},{"BoundingBox":{"Width":0.13028788566589355,"Height":0.13038122653961182,"Left":0.11815553158521652,"Top":0.17969921231269836},"Confidence":92.86677551269531},{"BoundingBox":{"Width":0.09789599478244781,"Height":0.10151953995227814,"Left":0.1885678619146347,"Top":0.1451772153377533},"Confidence":91.76555633544922},{"BoundingBox":{"Width":0.09583324193954468,"Height":0.09553047269582748,"Left":0.6059808731079102,"Top":0.09219247847795486},"Confidence":91.24443817138672},{"BoundingBox":{"Width":0.09435704350471497,"Height":0.1321815699338913,"Left":0.004929065704345703,"Top":0.16427646577358246},"Confidence":87.12005615234375},{"BoundingBox":{"Width":0.09804731607437134,"Height":0.11845797300338745,"Left":0.08416102826595306,"Top":0.12837696075439453},"Confidence":86.84342193603516},{"BoundingBox":{"Width":0.09877778589725494,"Height":0.3452380299568176,"Left":0,"Top":0.41387784481048584},"Confidence":83.3096923828125},{"BoundingBox":{"Width":0.08791801333427429,"Height":0.2209157943725586,"Left":0.33410415053367615,"Top":0.14215856790542603},"Confidence":77.15809631347656},{"BoundingBox":{"Width":0.3322967290878296,"Height":0.15709927678108215,"Left":0.38978564739227295,"Top":0},"Confidence":76.75592041015625}],"Parents":[],"Aliases":[{"Name":"Human"}],"Categories":[{"Name":"Person Description"}]},{"Name":"Photography","Confidence":99.64718627929688,"Instances":[],"Parents":[],"Aliases":[{"Name":"Photo"}],"Categories":[{"Name":"Hobbies and Interests"}]},{"Name":"Portrait","Confidence":99.64718627929688,"Instances":[],"Parents":[{"Name":"Face"},{"Name":"Head"},{"Name":"Person"},{"Name":"Photography"}],"Aliases":[],"Categories":[{"Name":"Hobbies and Interests"}]},{"Name":"Lady","Confidence":98.83185577392578,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Adult","Confidence":98.51455688476562,"Instances":[{"BoundingBox":{"Width":0.46839720010757446,"Height":0.7605031132698059,"Left":0,"Top":0.23805584013462067},"Confidence":98.51455688476562},{"BoundingBox":{"Width":0.1771388053894043,"Height":0.3865736722946167,"Left":0.3667478561401367,"Top":0.098927341401577},"Confidence":96.98294830322266},{"BoundingBox":{"Width":0.13264603912830353,"Height":0.2144067883491516,"Left":0.22578991949558258,"Top":0.0008120250422507524},"Confidence":93.0904312133789}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Male","Confidence":98.51455688476562,"Instances":[{"BoundingBox":{"Width":0.46839720010757446,"Height":0.7605031132698059,"Left":0,"Top":0.23805584013462067},"Confidence":98.51455688476562},{"BoundingBox":{"Width":0.1771388053894043,"Height":0.3865736722946167,"Left":0.3667478561401367,"Top":0.098927341401577},"Confidence":96.98294830322266}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Man","Confidence":98.51455688476562,"Instances":[{"BoundingBox":{"Width":0.46839720010757446,"Height":0.7605031132698059,"Left":0,"Top":0.23805584013462067},"Confidence":98.51455688476562},{"BoundingBox":{"Width":0.1771388053894043,"Height":0.3865736722946167,"Left":0.3667478561401367,"Top":0.098927341401577},"Confidence":96.98294830322266}],"Parents":[{"Name":"Adult"},{"Name":"Male"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Clothing","Confidence":97.41807556152344,"Instances":[],"Parents":[],"Aliases":[{"Name":"Apparel"}],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Coat","Confidence":97.41807556152344,"Instances":[],"Parents":[{"Name":"Clothing"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Crowd","Confidence":94.78363037109375,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Female","Confidence":93.0904312133789,"Instances":[{"BoundingBox":{"Width":0.13264603912830353,"Height":0.2144067883491516,"Left":0.22578991949558258,"Top":0.0008120250422507524},"Confidence":93.0904312133789}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Woman","Confidence":93.0904312133789,"Instances":[{"BoundingBox":{"Width":0.13264603912830353,"Height":0.2144067883491516,"Left":0.22578991949558258,"Top":0.0008120250422507524},"Confidence":93.0904312133789}],"Parents":[{"Name":"Adult"},{"Name":"Female"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"People","Confidence":84.20561218261719,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Jacket","Confidence":76.02136993408203,"Instances":[],"Parents":[{"Name":"Clothing"},{"Name":"Coat"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Audience","Confidence":75.57604217529297,"Instances":[],"Parents":[{"Name":"Crowd"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Performing Arts"}]}],"LabelModelVersion":"3.0"}</t>
-  </si>
-  <si>
-    <t>{"Labels":[{"Name":"Baseball Cap","Confidence":100,"Instances":[],"Parents":[{"Name":"Cap"},{"Name":"Clothing"},{"Name":"Hat"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Cap","Confidence":100,"Instances":[],"Parents":[{"Name":"Clothing"},{"Name":"Hat"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Clothing","Confidence":100,"Instances":[],"Parents":[],"Aliases":[{"Name":"Apparel"}],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Hat","Confidence":100,"Instances":[{"BoundingBox":{"Width":0.416428804397583,"Height":0.1995067596435547,"Left":0.07320834696292877,"Top":0.6898594498634338},"Confidence":98.36378479003906},{"BoundingBox":{"Width":0.4166768193244934,"Height":0.1978195756673813,"Left":0.5099740028381348,"Top":0.6914522647857666},"Confidence":97.71554565429688}],"Parents":[{"Name":"Clothing"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"Advertisement","Confidence":99.99974822998047,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Poster","Confidence":99.99796295166016,"Instances":[],"Parents":[{"Name":"Advertisement"}],"Aliases":[{"Name":"Brochure"},{"Name":"Flyer"}],"Categories":[{"Name":"Furniture and Furnishings"}]},{"Name":"QR Code","Confidence":72.46487426757812,"Instances":[{"BoundingBox":{"Width":0.04643523693084717,"Height":0.027322161942720413,"Left":0.9122753739356995,"Top":0.9287002086639404},"Confidence":72.46487426757812}],"Parents":[],"Aliases":[],"Categories":[{"Name":"Technology and Computing"}]}],"LabelModelVersion":"3.0"}</t>
-  </si>
-  <si>
-    <t>{"Labels":[{"Name":"Advertisement","Confidence":99.99983215332031,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Poster","Confidence":99.99974822998047,"Instances":[],"Parents":[{"Name":"Advertisement"}],"Aliases":[{"Name":"Brochure"},{"Name":"Flyer"}],"Categories":[{"Name":"Furniture and Furnishings"}]},{"Name":"Scoreboard","Confidence":98.623046875,"Instances":[{"BoundingBox":{"Width":0.9999999403953552,"Height":0.998986005783081,"Left":0,"Top":0.0010140228550881147},"Confidence":98.623046875}],"Parents":[],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"Text","Confidence":74.82058715820312,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]}],"LabelModelVersion":"3.0"}</t>
-  </si>
-  <si>
-    <t>{"Labels":[{"Name":"Chart","Confidence":99.41301727294922,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Plot","Confidence":99.41301727294922,"Instances":[],"Parents":[{"Name":"Chart"}],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Page","Confidence":99.12903594970703,"Instances":[],"Parents":[{"Name":"Text"}],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Text","Confidence":99.12903594970703,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Number","Confidence":97.36262512207031,"Instances":[],"Parents":[{"Name":"Symbol"},{"Name":"Text"}],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Symbol","Confidence":97.36262512207031,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Symbols and Flags"}]},{"Name":"Measurements","Confidence":75.46807098388672,"Instances":[],"Parents":[{"Name":"Chart"},{"Name":"Plot"}],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]}],"LabelModelVersion":"3.0"}</t>
-  </si>
-  <si>
-    <t>{"Labels":[{"Name":"Ball","Confidence":98.80609130859375,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"Rugby","Confidence":98.80609130859375,"Instances":[],"Parents":[{"Name":"Sport"}],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"Rugby Ball","Confidence":98.80609130859375,"Instances":[{"BoundingBox":{"Width":0.49135157465934753,"Height":0.3177417516708374,"Left":0.4996698796749115,"Top":0.27240675687789917},"Confidence":98.80609130859375}],"Parents":[{"Name":"Ball"},{"Name":"Rugby"},{"Name":"Sport"}],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"Sport","Confidence":98.80609130859375,"Instances":[],"Parents":[],"Aliases":[{"Name":"Sports"}],"Categories":[{"Name":"Sports"}]},{"Name":"Face","Confidence":96.71920776367188,"Instances":[],"Parents":[{"Name":"Head"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Head","Confidence":96.71920776367188,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Person","Confidence":96.71920776367188,"Instances":[{"BoundingBox":{"Width":0.49983322620391846,"Height":0.9446393251419067,"Left":0.49914348125457764,"Top":0.053643301129341125},"Confidence":96.37016296386719}],"Parents":[],"Aliases":[{"Name":"Human"}],"Categories":[{"Name":"Person Description"}]},{"Name":"Photography","Confidence":96.71920776367188,"Instances":[],"Parents":[],"Aliases":[{"Name":"Photo"}],"Categories":[{"Name":"Hobbies and Interests"}]},{"Name":"Portrait","Confidence":96.71920776367188,"Instances":[],"Parents":[{"Name":"Face"},{"Name":"Head"},{"Name":"Person"},{"Name":"Photography"}],"Aliases":[],"Categories":[{"Name":"Hobbies and Interests"}]},{"Name":"Boy","Confidence":96.37016296386719,"Instances":[{"BoundingBox":{"Width":0.49983322620391846,"Height":0.9446393251419067,"Left":0.49914348125457764,"Top":0.053643301129341125},"Confidence":96.37016296386719}],"Parents":[{"Name":"Male"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Child","Confidence":96.37016296386719,"Instances":[{"BoundingBox":{"Width":0.49983322620391846,"Height":0.9446393251419067,"Left":0.49914348125457764,"Top":0.053643301129341125},"Confidence":96.37016296386719}],"Parents":[{"Name":"Person"}],"Aliases":[{"Name":"Kid"}],"Categories":[{"Name":"Person Description"}]},{"Name":"Male","Confidence":96.37016296386719,"Instances":[{"BoundingBox":{"Width":0.49983322620391846,"Height":0.9446393251419067,"Left":0.49914348125457764,"Top":0.053643301129341125},"Confidence":96.37016296386719}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"American Football","Confidence":93.31439208984375,"Instances":[],"Parents":[{"Name":"Football"},{"Name":"Sport"}],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"American Football (Ball)","Confidence":93.31439208984375,"Instances":[{"BoundingBox":{"Width":0.3604709208011627,"Height":0.255810022354126,"Left":0.00019891739066224545,"Top":0.39653563499450684},"Confidence":93.31439208984375}],"Parents":[{"Name":"American Football"},{"Name":"Ball"},{"Name":"Football"},{"Name":"Sport"}],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"Football","Confidence":93.31439208984375,"Instances":[],"Parents":[{"Name":"Sport"}],"Aliases":[],"Categories":[{"Name":"Sports"}]},{"Name":"Playing American Football","Confidence":92.6055908203125,"Instances":[],"Parents":[{"Name":"American Football"},{"Name":"Football"},{"Name":"Person"},{"Name":"Sport"}],"Aliases":[],"Categories":[{"Name":"Actions"}]},{"Name":"Helmet","Confidence":85.5241928100586,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"People","Confidence":75.10466003417969,"Instances":[],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Clothing","Confidence":68.45476531982422,"Instances":[],"Parents":[],"Aliases":[{"Name":"Apparel"}],"Categories":[{"Name":"Apparel and Accessories"}]},{"Name":"T-Shirt","Confidence":68.45476531982422,"Instances":[],"Parents":[{"Name":"Clothing"}],"Aliases":[],"Categories":[{"Name":"Apparel and Accessories"}]}],"LabelModelVersion":"3.0"}</t>
-  </si>
-  <si>
-    <t>{"Labels":[{"Name":"Food","Confidence":99.97188568115234,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]},{"Name":"Food Presentation","Confidence":99.97188568115234,"Instances":[],"Parents":[{"Name":"Food"}],"Aliases":[],"Categories":[{"Name":"Kitchen and Dining"}]},{"Name":"Pizza","Confidence":82.22334289550781,"Instances":[{"BoundingBox":{"Width":0.36171954870224,"Height":0.4313463568687439,"Left":0.23440223932266235,"Top":0.19046330451965332},"Confidence":82.22334289550781}],"Parents":[{"Name":"Food"}],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]},{"Name":"Cutlery","Confidence":73.86701202392578,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Kitchen and Dining"}]},{"Name":"Spoon","Confidence":73.86701202392578,"Instances":[{"BoundingBox":{"Width":0.16044872999191284,"Height":0.14732542634010315,"Left":0.8391396999359131,"Top":0.4454461634159088},"Confidence":73.86701202392578}],"Parents":[{"Name":"Cutlery"}],"Aliases":[],"Categories":[{"Name":"Kitchen and Dining"}]},{"Name":"Bread","Confidence":72.97765350341797,"Instances":[],"Parents":[{"Name":"Food"}],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]},{"Name":"Guacamole","Confidence":68.84996032714844,"Instances":[],"Parents":[{"Name":"Food"}],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]},{"Name":"Pancake","Confidence":66.47975158691406,"Instances":[],"Parents":[{"Name":"Bread"},{"Name":"Food"}],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]}],"LabelModelVersion":"3.0"}</t>
-  </si>
-  <si>
-    <t>{"Labels":[{"Name":"Bbq","Confidence":98.61418914794922,"Instances":[],"Parents":[{"Name":"Cooking"},{"Name":"Food"},{"Name":"Grilling"}],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]},{"Name":"Cooking","Confidence":98.61418914794922,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Kitchen and Dining"}]},{"Name":"Food","Confidence":98.61418914794922,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Food and Beverage"}]},{"Name":"Grilling","Confidence":98.61418914794922,"Instances":[],"Parents":[{"Name":"Cooking"}],"Aliases":[],"Categories":[{"Name":"Kitchen and Dining"}]},{"Name":"Advertisement","Confidence":94.29690551757812,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Text and Documents"}]},{"Name":"Person","Confidence":93.6300048828125,"Instances":[{"BoundingBox":{"Width":0.06542432308197021,"Height":0.19547852873802185,"Left":0.39886242151260376,"Top":0.6567841172218323},"Confidence":93.6300048828125}],"Parents":[],"Aliases":[{"Name":"Human"}],"Categories":[{"Name":"Person Description"}]},{"Name":"Car","Confidence":78.14362335205078,"Instances":[{"BoundingBox":{"Width":0.1560196876525879,"Height":0.1638486236333847,"Left":0.3341839611530304,"Top":0.17001456022262573},"Confidence":78.14362335205078},{"BoundingBox":{"Width":0.6318696737289429,"Height":0.49243322014808655,"Left":0.34626930952072144,"Top":0.0031852531246840954},"Confidence":71.74896240234375}],"Parents":[{"Name":"Transportation"},{"Name":"Vehicle"}],"Aliases":[{"Name":"Automobile"}],"Categories":[{"Name":"Vehicles and Automotive"}]},{"Name":"Transportation","Confidence":78.14362335205078,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Vehicles and Automotive"}]},{"Name":"Vehicle","Confidence":78.14362335205078,"Instances":[],"Parents":[{"Name":"Transportation"}],"Aliases":[],"Categories":[{"Name":"Vehicles and Automotive"}]},{"Name":"Device","Confidence":71.32793426513672,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Technology and Computing"}]},{"Name":"Electrical Device","Confidence":70.09559631347656,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Technology and Computing"}]},{"Name":"Appliance","Confidence":68.57816314697266,"Instances":[],"Parents":[{"Name":"Device"},{"Name":"Electrical Device"}],"Aliases":[],"Categories":[{"Name":"Home Appliances"}]}],"LabelModelVersion":"3.0"}</t>
-  </si>
-  <si>
-    <t>(1) 18380579401063495.webp</t>
   </si>
   <si>
     <t>{"Labels":[{"Name":"Animal","Confidence":99.82422637939453,"Instances":[],"Parents":[],"Aliases":[],"Categories":[{"Name":"Animals and Pets"}]},{"Name":"Horse","Confidence":99.82422637939453,"Instances":[{"BoundingBox":{"Width":0.389608770608902,"Height":0.5421615242958069,"Left":0.3705171048641205,"Top":0.4315096139907837},"Confidence":97.64078521728516}],"Parents":[{"Name":"Animal"},{"Name":"Mammal"}],"Aliases":[],"Categories":[{"Name":"Animals and Pets"}]},{"Name":"Horseback Riding","Confidence":99.82422637939453,"Instances":[],"Parents":[{"Name":"Animal"},{"Name":"Horse"},{"Name":"Leisure Activities"},{"Name":"Mammal"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Hobbies and Interests"}]},{"Name":"Leisure Activities","Confidence":99.82422637939453,"Instances":[],"Parents":[],"Aliases":[{"Name":"Recreation"}],"Categories":[{"Name":"Travel and Adventure"}]},{"Name":"Mammal","Confidence":99.82422637939453,"Instances":[],"Parents":[{"Name":"Animal"}],"Aliases":[],"Categories":[{"Name":"Animals and Pets"}]},{"Name":"Person","Confidence":99.82422637939453,"Instances":[{"BoundingBox":{"Width":0.15816646814346313,"Height":0.41362518072128296,"Left":0.5173960328102112,"Top":0.31791508197784424},"Confidence":99.34651184082031}],"Parents":[],"Aliases":[{"Name":"Human"}],"Categories":[{"Name":"Person Description"}]},{"Name":"Adult","Confidence":99.34651184082031,"Instances":[{"BoundingBox":{"Width":0.15816646814346313,"Height":0.41362518072128296,"Left":0.5173960328102112,"Top":0.31791508197784424},"Confidence":99.34651184082031}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Female","Confidence":99.34651184082031,"Instances":[{"BoundingBox":{"Width":0.15816646814346313,"Height":0.41362518072128296,"Left":0.5173960328102112,"Top":0.31791508197784424},"Confidence":99.34651184082031}],"Parents":[{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]},{"Name":"Woman","Confidence":99.34651184082031,"Instances":[{"BoundingBox":{"Width":0.15816646814346313,"Height":0.41362518072128296,"Left":0.5173960328102112,"Top":0.31791508197784424},"Confidence":99.34651184082031}],"Parents":[{"Name":"Adult"},{"Name":"Female"},{"Name":"Person"}],"Aliases":[],"Categories":[{"Name":"Person Description"}]}],"LabelModelVersion":"3.0"}</t>
@@ -1289,7 +1292,7 @@
     <col customWidth="1" min="4" max="4" width="8.71"/>
     <col customWidth="1" min="5" max="5" width="12.0"/>
     <col customWidth="1" min="6" max="6" width="14.29"/>
-    <col customWidth="1" min="8" max="8" width="17.71"/>
+    <col customWidth="1" min="7" max="7" width="17.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1311,7 +1314,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1334,7 +1337,7 @@
       <c r="F2" s="1">
         <v>2.0</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1357,7 +1360,7 @@
       <c r="F3" s="1">
         <v>1.0</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1380,7 +1383,7 @@
       <c r="F4" s="1">
         <v>7.0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1403,7 +1406,7 @@
       <c r="F5" s="1">
         <v>1.0</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1426,7 +1429,7 @@
       <c r="F6" s="1">
         <v>1.0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1449,7 +1452,7 @@
       <c r="F7" s="1">
         <v>1.0</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1472,7 +1475,7 @@
       <c r="F8" s="1">
         <v>1.0</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1495,7 +1498,7 @@
       <c r="F9" s="1">
         <v>0.0</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1518,7 +1521,7 @@
       <c r="F10" s="1">
         <v>0.0</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1541,7 +1544,7 @@
       <c r="F11" s="1">
         <v>1.0</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1564,7 +1567,7 @@
       <c r="F12" s="1">
         <v>0.0</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1587,7 +1590,7 @@
       <c r="F13" s="1">
         <v>1.0</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1610,7 +1613,7 @@
       <c r="F14" s="1">
         <v>0.0</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1633,7 +1636,7 @@
       <c r="F15" s="1">
         <v>0.0</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1656,7 +1659,7 @@
       <c r="F16" s="1">
         <v>0.0</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1679,7 +1682,7 @@
       <c r="F17" s="1">
         <v>0.0</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1702,7 +1705,7 @@
       <c r="F18" s="1">
         <v>1.0</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1725,7 +1728,7 @@
       <c r="F19" s="1">
         <v>1.0</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1748,7 +1751,7 @@
       <c r="F20" s="1">
         <v>0.0</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1771,7 +1774,7 @@
       <c r="F21" s="1">
         <v>0.0</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1794,7 +1797,7 @@
       <c r="F22" s="1">
         <v>14.0</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1817,7 +1820,7 @@
       <c r="F23" s="1">
         <v>0.0</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1840,7 +1843,7 @@
       <c r="F24" s="1">
         <v>0.0</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1863,7 +1866,7 @@
       <c r="F25" s="1">
         <v>0.0</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1886,7 +1889,7 @@
       <c r="F26" s="1">
         <v>3.0</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1909,7 +1912,7 @@
       <c r="F27" s="1">
         <v>2.0</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1932,7 +1935,7 @@
       <c r="F28" s="1">
         <v>2.0</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1955,7 +1958,7 @@
       <c r="F29" s="1">
         <v>0.0</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1978,7 +1981,7 @@
       <c r="F30" s="1">
         <v>0.0</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2001,7 +2004,7 @@
       <c r="F31" s="1">
         <v>0.0</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2024,7 +2027,7 @@
       <c r="F32" s="1">
         <v>1.0</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2047,7 +2050,7 @@
       <c r="F33" s="1">
         <v>1.0</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2070,7 +2073,7 @@
       <c r="F34" s="1">
         <v>0.0</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2093,7 +2096,7 @@
       <c r="F35" s="1">
         <v>0.0</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2116,7 +2119,7 @@
       <c r="F36" s="1">
         <v>0.0</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2139,7 +2142,7 @@
       <c r="F37" s="1">
         <v>0.0</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2162,7 +2165,7 @@
       <c r="F38" s="1">
         <v>0.0</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2185,7 +2188,7 @@
       <c r="F39" s="1">
         <v>0.0</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2208,7 +2211,7 @@
       <c r="F40" s="1">
         <v>2.0</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2231,7 +2234,7 @@
       <c r="F41" s="1">
         <v>0.0</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2254,7 +2257,7 @@
       <c r="F42" s="1">
         <v>0.0</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2277,7 +2280,7 @@
       <c r="F43" s="1">
         <v>1.0</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2300,7 +2303,7 @@
       <c r="F44" s="1">
         <v>0.0</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2323,7 +2326,7 @@
       <c r="F45" s="1">
         <v>0.0</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2346,7 +2349,7 @@
       <c r="F46" s="1">
         <v>1.0</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2369,7 +2372,7 @@
       <c r="F47" s="1">
         <v>0.0</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2392,7 +2395,7 @@
       <c r="F48" s="1">
         <v>0.0</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2415,7 +2418,7 @@
       <c r="F49" s="1">
         <v>0.0</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2438,7 +2441,7 @@
       <c r="F50" s="1">
         <v>0.0</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2461,7 +2464,7 @@
       <c r="F51" s="1">
         <v>0.0</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2484,7 +2487,7 @@
       <c r="F52" s="1">
         <v>0.0</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2507,7 +2510,7 @@
       <c r="F53" s="1">
         <v>0.0</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2530,7 +2533,7 @@
       <c r="F54" s="1">
         <v>0.0</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2553,7 +2556,7 @@
       <c r="F55" s="1">
         <v>0.0</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2576,7 +2579,7 @@
       <c r="F56" s="1">
         <v>0.0</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2599,7 +2602,7 @@
       <c r="F57" s="1">
         <v>1.0</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2622,7 +2625,7 @@
       <c r="F58" s="1">
         <v>0.0</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2645,7 +2648,7 @@
       <c r="F59" s="1">
         <v>0.0</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2668,7 +2671,7 @@
       <c r="F60" s="1">
         <v>0.0</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2691,7 +2694,7 @@
       <c r="F61" s="1">
         <v>1.0</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2714,7 +2717,7 @@
       <c r="F62" s="1">
         <v>0.0</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2737,7 +2740,7 @@
       <c r="F63" s="1">
         <v>0.0</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2760,7 +2763,7 @@
       <c r="F64" s="1">
         <v>1.0</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2783,7 +2786,7 @@
       <c r="F65" s="1">
         <v>1.0</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2806,7 +2809,7 @@
       <c r="F66" s="1">
         <v>1.0</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2829,7 +2832,7 @@
       <c r="F67" s="1">
         <v>0.0</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2852,7 +2855,7 @@
       <c r="F68" s="1">
         <v>1.0</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2875,7 +2878,7 @@
       <c r="F69" s="1">
         <v>0.0</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2898,7 +2901,7 @@
       <c r="F70" s="1">
         <v>0.0</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2921,7 +2924,7 @@
       <c r="F71" s="1">
         <v>0.0</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2944,7 +2947,7 @@
       <c r="F72" s="1">
         <v>0.0</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2967,7 +2970,7 @@
       <c r="F73" s="1">
         <v>0.0</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2990,7 +2993,7 @@
       <c r="F74" s="1">
         <v>0.0</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3013,7 +3016,7 @@
       <c r="F75" s="1">
         <v>0.0</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3036,7 +3039,7 @@
       <c r="F76" s="1">
         <v>0.0</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3059,7 +3062,7 @@
       <c r="F77" s="1">
         <v>1.0</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3082,7 +3085,7 @@
       <c r="F78" s="1">
         <v>0.0</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3105,7 +3108,7 @@
       <c r="F79" s="1">
         <v>1.0</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3128,7 +3131,7 @@
       <c r="F80" s="1">
         <v>0.0</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3151,7 +3154,7 @@
       <c r="F81" s="1">
         <v>0.0</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3174,7 +3177,7 @@
       <c r="F82" s="1">
         <v>0.0</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3197,7 +3200,7 @@
       <c r="F83" s="1">
         <v>0.0</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3220,7 +3223,7 @@
       <c r="F84" s="1">
         <v>0.0</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3243,7 +3246,7 @@
       <c r="F85" s="1">
         <v>0.0</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3266,7 +3269,7 @@
       <c r="F86" s="1">
         <v>0.0</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3289,7 +3292,7 @@
       <c r="F87" s="1">
         <v>0.0</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3312,7 +3315,7 @@
       <c r="F88" s="1">
         <v>1.0</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3335,7 +3338,7 @@
       <c r="F89" s="1">
         <v>2.0</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3358,7 +3361,7 @@
       <c r="F90" s="1">
         <v>0.0</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3381,7 +3384,7 @@
       <c r="F91" s="1">
         <v>0.0</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3404,7 +3407,7 @@
       <c r="F92" s="1">
         <v>0.0</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3427,7 +3430,7 @@
       <c r="F93" s="1">
         <v>0.0</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3450,7 +3453,7 @@
       <c r="F94" s="1">
         <v>0.0</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3458,16 +3461,16 @@
       <c r="A95" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C95" s="1">
-        <v>0.0</v>
+      <c r="C95" s="2">
+        <v>98.4359331298</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H95" s="1" t="s">
+      <c r="F95" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3490,7 +3493,7 @@
       <c r="F96" s="1">
         <v>0.0</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3513,7 +3516,7 @@
       <c r="F97" s="1">
         <v>1.0</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3536,7 +3539,7 @@
       <c r="F98" s="1">
         <v>0.0</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3559,7 +3562,7 @@
       <c r="F99" s="1">
         <v>0.0</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3582,7 +3585,7 @@
       <c r="F100" s="1">
         <v>0.0</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3605,7 +3608,7 @@
       <c r="F101" s="1">
         <v>1.0</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3628,7 +3631,7 @@
       <c r="F102" s="1">
         <v>1.0</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3651,7 +3654,7 @@
       <c r="F103" s="1">
         <v>1.0</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3674,7 +3677,7 @@
       <c r="F104" s="1">
         <v>1.0</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3697,7 +3700,7 @@
       <c r="F105" s="1">
         <v>0.0</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3720,7 +3723,7 @@
       <c r="F106" s="1">
         <v>0.0</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3743,7 +3746,7 @@
       <c r="F107" s="1">
         <v>1.0</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3766,7 +3769,7 @@
       <c r="F108" s="1">
         <v>0.0</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3789,7 +3792,7 @@
       <c r="F109" s="1">
         <v>1.0</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3812,7 +3815,7 @@
       <c r="F110" s="1">
         <v>0.0</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3835,7 +3838,7 @@
       <c r="F111" s="1">
         <v>0.0</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3858,7 +3861,7 @@
       <c r="F112" s="1">
         <v>0.0</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3881,7 +3884,7 @@
       <c r="F113" s="1">
         <v>1.0</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3904,7 +3907,7 @@
       <c r="F114" s="1">
         <v>0.0</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3927,7 +3930,7 @@
       <c r="F115" s="1">
         <v>0.0</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3950,7 +3953,7 @@
       <c r="F116" s="1">
         <v>0.0</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3973,7 +3976,7 @@
       <c r="F117" s="1">
         <v>1.0</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3996,7 +3999,7 @@
       <c r="F118" s="1">
         <v>0.0</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4019,7 +4022,7 @@
       <c r="F119" s="1">
         <v>0.0</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4042,7 +4045,7 @@
       <c r="F120" s="1">
         <v>0.0</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4065,7 +4068,7 @@
       <c r="F121" s="1">
         <v>0.0</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4088,7 +4091,7 @@
       <c r="F122" s="1">
         <v>0.0</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4111,7 +4114,7 @@
       <c r="F123" s="1">
         <v>0.0</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4134,7 +4137,7 @@
       <c r="F124" s="1">
         <v>0.0</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4157,7 +4160,7 @@
       <c r="F125" s="1">
         <v>0.0</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4180,7 +4183,7 @@
       <c r="F126" s="1">
         <v>0.0</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4203,7 +4206,7 @@
       <c r="F127" s="1">
         <v>0.0</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4226,7 +4229,7 @@
       <c r="F128" s="1">
         <v>0.0</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4249,7 +4252,7 @@
       <c r="F129" s="1">
         <v>3.0</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4272,7 +4275,7 @@
       <c r="F130" s="1">
         <v>0.0</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4295,7 +4298,7 @@
       <c r="F131" s="1">
         <v>0.0</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4318,7 +4321,7 @@
       <c r="F132" s="1">
         <v>0.0</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4341,7 +4344,7 @@
       <c r="F133" s="1">
         <v>1.0</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4364,7 +4367,7 @@
       <c r="F134" s="1">
         <v>1.0</v>
       </c>
-      <c r="H134" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4387,7 +4390,7 @@
       <c r="F135" s="1">
         <v>1.0</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4410,7 +4413,7 @@
       <c r="F136" s="1">
         <v>0.0</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4433,7 +4436,7 @@
       <c r="F137" s="1">
         <v>0.0</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4456,7 +4459,7 @@
       <c r="F138" s="1">
         <v>2.0</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="G138" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4479,7 +4482,7 @@
       <c r="F139" s="1">
         <v>0.0</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4502,7 +4505,7 @@
       <c r="F140" s="1">
         <v>0.0</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4525,7 +4528,7 @@
       <c r="F141" s="1">
         <v>6.0</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="G141" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4548,7 +4551,7 @@
       <c r="F142" s="1">
         <v>0.0</v>
       </c>
-      <c r="H142" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4571,7 +4574,7 @@
       <c r="F143" s="1">
         <v>0.0</v>
       </c>
-      <c r="H143" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4594,7 +4597,7 @@
       <c r="F144" s="1">
         <v>0.0</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="G144" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4617,7 +4620,7 @@
       <c r="F145" s="1">
         <v>0.0</v>
       </c>
-      <c r="H145" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4640,7 +4643,7 @@
       <c r="F146" s="1">
         <v>1.0</v>
       </c>
-      <c r="H146" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4663,7 +4666,7 @@
       <c r="F147" s="1">
         <v>0.0</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4686,7 +4689,7 @@
       <c r="F148" s="1">
         <v>0.0</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4709,7 +4712,7 @@
       <c r="F149" s="1">
         <v>2.0</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4732,7 +4735,7 @@
       <c r="F150" s="1">
         <v>1.0</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4755,7 +4758,7 @@
       <c r="F151" s="1">
         <v>1.0</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4778,7 +4781,7 @@
       <c r="F152" s="1">
         <v>1.0</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4801,7 +4804,7 @@
       <c r="F153" s="1">
         <v>0.0</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4824,7 +4827,7 @@
       <c r="F154" s="1">
         <v>1.0</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4847,7 +4850,7 @@
       <c r="F155" s="1">
         <v>0.0</v>
       </c>
-      <c r="H155" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4870,7 +4873,7 @@
       <c r="F156" s="1">
         <v>0.0</v>
       </c>
-      <c r="H156" s="1" t="s">
+      <c r="G156" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4893,7 +4896,7 @@
       <c r="F157" s="1">
         <v>0.0</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="G157" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4916,7 +4919,7 @@
       <c r="F158" s="1">
         <v>0.0</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4939,7 +4942,7 @@
       <c r="F159" s="1">
         <v>2.0</v>
       </c>
-      <c r="H159" s="1" t="s">
+      <c r="G159" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4962,7 +4965,7 @@
       <c r="F160" s="1">
         <v>0.0</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4985,7 +4988,7 @@
       <c r="F161" s="1">
         <v>0.0</v>
       </c>
-      <c r="H161" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5008,7 +5011,7 @@
       <c r="F162" s="1">
         <v>2.0</v>
       </c>
-      <c r="H162" s="1" t="s">
+      <c r="G162" s="1" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5031,7 +5034,7 @@
       <c r="F163" s="1">
         <v>1.0</v>
       </c>
-      <c r="H163" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5054,7 +5057,7 @@
       <c r="F164" s="1">
         <v>1.0</v>
       </c>
-      <c r="H164" s="1" t="s">
+      <c r="G164" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5077,7 +5080,7 @@
       <c r="F165" s="1">
         <v>1.0</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="G165" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5100,7 +5103,7 @@
       <c r="F166" s="1">
         <v>1.0</v>
       </c>
-      <c r="H166" s="1" t="s">
+      <c r="G166" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5123,7 +5126,7 @@
       <c r="F167" s="1">
         <v>0.0</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5146,7 +5149,7 @@
       <c r="F168" s="1">
         <v>0.0</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="G168" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5169,7 +5172,7 @@
       <c r="F169" s="1">
         <v>0.0</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="G169" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5192,7 +5195,7 @@
       <c r="F170" s="1">
         <v>0.0</v>
       </c>
-      <c r="H170" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5215,7 +5218,7 @@
       <c r="F171" s="1">
         <v>0.0</v>
       </c>
-      <c r="H171" s="1" t="s">
+      <c r="G171" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5238,7 +5241,7 @@
       <c r="F172" s="1">
         <v>0.0</v>
       </c>
-      <c r="H172" s="1" t="s">
+      <c r="G172" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5261,7 +5264,7 @@
       <c r="F173" s="1">
         <v>3.0</v>
       </c>
-      <c r="H173" s="1" t="s">
+      <c r="G173" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5284,7 +5287,7 @@
       <c r="F174" s="1">
         <v>2.0</v>
       </c>
-      <c r="H174" s="1" t="s">
+      <c r="G174" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5307,7 +5310,7 @@
       <c r="F175" s="1">
         <v>2.0</v>
       </c>
-      <c r="H175" s="1" t="s">
+      <c r="G175" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5330,7 +5333,7 @@
       <c r="F176" s="1">
         <v>2.0</v>
       </c>
-      <c r="H176" s="1" t="s">
+      <c r="G176" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5353,7 +5356,7 @@
       <c r="F177" s="1">
         <v>0.0</v>
       </c>
-      <c r="H177" s="1" t="s">
+      <c r="G177" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5376,7 +5379,7 @@
       <c r="F178" s="1">
         <v>1.0</v>
       </c>
-      <c r="H178" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5399,7 +5402,7 @@
       <c r="F179" s="1">
         <v>1.0</v>
       </c>
-      <c r="H179" s="1" t="s">
+      <c r="G179" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5422,7 +5425,7 @@
       <c r="F180" s="1">
         <v>0.0</v>
       </c>
-      <c r="H180" s="1" t="s">
+      <c r="G180" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5445,7 +5448,7 @@
       <c r="F181" s="1">
         <v>4.0</v>
       </c>
-      <c r="H181" s="1" t="s">
+      <c r="G181" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5468,7 +5471,7 @@
       <c r="F182" s="1">
         <v>0.0</v>
       </c>
-      <c r="H182" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5491,7 +5494,7 @@
       <c r="F183" s="1">
         <v>0.0</v>
       </c>
-      <c r="H183" s="1" t="s">
+      <c r="G183" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5514,7 +5517,7 @@
       <c r="F184" s="1">
         <v>0.0</v>
       </c>
-      <c r="H184" s="1" t="s">
+      <c r="G184" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5537,7 +5540,7 @@
       <c r="F185" s="1">
         <v>0.0</v>
       </c>
-      <c r="H185" s="1" t="s">
+      <c r="G185" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5560,7 +5563,7 @@
       <c r="F186" s="1">
         <v>0.0</v>
       </c>
-      <c r="H186" s="1" t="s">
+      <c r="G186" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5583,7 +5586,7 @@
       <c r="F187" s="1">
         <v>0.0</v>
       </c>
-      <c r="H187" s="1" t="s">
+      <c r="G187" s="1" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5606,7 +5609,7 @@
       <c r="F188" s="1">
         <v>0.0</v>
       </c>
-      <c r="H188" s="1" t="s">
+      <c r="G188" s="1" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5629,7 +5632,7 @@
       <c r="F189" s="1">
         <v>0.0</v>
       </c>
-      <c r="H189" s="1" t="s">
+      <c r="G189" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5652,7 +5655,7 @@
       <c r="F190" s="1">
         <v>1.0</v>
       </c>
-      <c r="H190" s="1" t="s">
+      <c r="G190" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5675,7 +5678,7 @@
       <c r="F191" s="1">
         <v>0.0</v>
       </c>
-      <c r="H191" s="1" t="s">
+      <c r="G191" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5698,7 +5701,7 @@
       <c r="F192" s="1">
         <v>0.0</v>
       </c>
-      <c r="H192" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5721,7 +5724,7 @@
       <c r="F193" s="1">
         <v>1.0</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="G193" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5744,7 +5747,7 @@
       <c r="F194" s="1">
         <v>0.0</v>
       </c>
-      <c r="H194" s="1" t="s">
+      <c r="G194" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5767,7 +5770,7 @@
       <c r="F195" s="1">
         <v>0.0</v>
       </c>
-      <c r="H195" s="1" t="s">
+      <c r="G195" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5790,7 +5793,7 @@
       <c r="F196" s="1">
         <v>1.0</v>
       </c>
-      <c r="H196" s="1" t="s">
+      <c r="G196" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5813,7 +5816,7 @@
       <c r="F197" s="1">
         <v>1.0</v>
       </c>
-      <c r="H197" s="1" t="s">
+      <c r="G197" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5836,7 +5839,7 @@
       <c r="F198" s="1">
         <v>1.0</v>
       </c>
-      <c r="H198" s="1" t="s">
+      <c r="G198" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5859,7 +5862,7 @@
       <c r="F199" s="1">
         <v>0.0</v>
       </c>
-      <c r="H199" s="1" t="s">
+      <c r="G199" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5882,7 +5885,7 @@
       <c r="F200" s="1">
         <v>2.0</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="G200" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5905,7 +5908,7 @@
       <c r="F201" s="1">
         <v>0.0</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5928,7 +5931,7 @@
       <c r="F202" s="1">
         <v>1.0</v>
       </c>
-      <c r="H202" s="1" t="s">
+      <c r="G202" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5951,7 +5954,7 @@
       <c r="F203" s="1">
         <v>1.0</v>
       </c>
-      <c r="H203" s="1" t="s">
+      <c r="G203" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5974,7 +5977,7 @@
       <c r="F204" s="1">
         <v>1.0</v>
       </c>
-      <c r="H204" s="1" t="s">
+      <c r="G204" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5997,7 +6000,7 @@
       <c r="F205" s="1">
         <v>1.0</v>
       </c>
-      <c r="H205" s="1" t="s">
+      <c r="G205" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6020,7 +6023,7 @@
       <c r="F206" s="1">
         <v>1.0</v>
       </c>
-      <c r="H206" s="1" t="s">
+      <c r="G206" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6043,7 +6046,7 @@
       <c r="F207" s="1">
         <v>0.0</v>
       </c>
-      <c r="H207" s="1" t="s">
+      <c r="G207" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6066,7 +6069,7 @@
       <c r="F208" s="1">
         <v>2.0</v>
       </c>
-      <c r="H208" s="1" t="s">
+      <c r="G208" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6089,7 +6092,7 @@
       <c r="F209" s="1">
         <v>0.0</v>
       </c>
-      <c r="H209" s="1" t="s">
+      <c r="G209" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6112,7 +6115,7 @@
       <c r="F210" s="1">
         <v>0.0</v>
       </c>
-      <c r="H210" s="1" t="s">
+      <c r="G210" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6135,7 +6138,7 @@
       <c r="F211" s="1">
         <v>0.0</v>
       </c>
-      <c r="H211" s="1" t="s">
+      <c r="G211" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6158,7 +6161,7 @@
       <c r="F212" s="1">
         <v>0.0</v>
       </c>
-      <c r="H212" s="1" t="s">
+      <c r="G212" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6181,7 +6184,7 @@
       <c r="F213" s="1">
         <v>0.0</v>
       </c>
-      <c r="H213" s="1" t="s">
+      <c r="G213" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6204,7 +6207,7 @@
       <c r="F214" s="1">
         <v>0.0</v>
       </c>
-      <c r="H214" s="1" t="s">
+      <c r="G214" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6227,7 +6230,7 @@
       <c r="F215" s="1">
         <v>2.0</v>
       </c>
-      <c r="H215" s="1" t="s">
+      <c r="G215" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6250,7 +6253,7 @@
       <c r="F216" s="1">
         <v>0.0</v>
       </c>
-      <c r="H216" s="1" t="s">
+      <c r="G216" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6273,7 +6276,7 @@
       <c r="F217" s="1">
         <v>0.0</v>
       </c>
-      <c r="H217" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6296,7 +6299,7 @@
       <c r="F218" s="1">
         <v>0.0</v>
       </c>
-      <c r="H218" s="1" t="s">
+      <c r="G218" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6319,7 +6322,7 @@
       <c r="F219" s="1">
         <v>0.0</v>
       </c>
-      <c r="H219" s="1" t="s">
+      <c r="G219" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6342,7 +6345,7 @@
       <c r="F220" s="1">
         <v>0.0</v>
       </c>
-      <c r="H220" s="1" t="s">
+      <c r="G220" s="1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6365,7 +6368,7 @@
       <c r="F221" s="1">
         <v>0.0</v>
       </c>
-      <c r="H221" s="1" t="s">
+      <c r="G221" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6388,7 +6391,7 @@
       <c r="F222" s="1">
         <v>2.0</v>
       </c>
-      <c r="H222" s="1" t="s">
+      <c r="G222" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6411,7 +6414,7 @@
       <c r="F223" s="1">
         <v>0.0</v>
       </c>
-      <c r="H223" s="1" t="s">
+      <c r="G223" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6434,7 +6437,7 @@
       <c r="F224" s="1">
         <v>0.0</v>
       </c>
-      <c r="H224" s="1" t="s">
+      <c r="G224" s="1" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6457,7 +6460,7 @@
       <c r="F225" s="1">
         <v>0.0</v>
       </c>
-      <c r="H225" s="1" t="s">
+      <c r="G225" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6480,7 +6483,7 @@
       <c r="F226" s="1">
         <v>1.0</v>
       </c>
-      <c r="H226" s="1" t="s">
+      <c r="G226" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6503,7 +6506,7 @@
       <c r="F227" s="1">
         <v>1.0</v>
       </c>
-      <c r="H227" s="1" t="s">
+      <c r="G227" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6526,7 +6529,7 @@
       <c r="F228" s="1">
         <v>1.0</v>
       </c>
-      <c r="H228" s="1" t="s">
+      <c r="G228" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6549,7 +6552,7 @@
       <c r="F229" s="1">
         <v>0.0</v>
       </c>
-      <c r="H229" s="1" t="s">
+      <c r="G229" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6572,7 +6575,7 @@
       <c r="F230" s="1">
         <v>1.0</v>
       </c>
-      <c r="H230" s="1" t="s">
+      <c r="G230" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6595,7 +6598,7 @@
       <c r="F231" s="1">
         <v>1.0</v>
       </c>
-      <c r="H231" s="1" t="s">
+      <c r="G231" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6618,7 +6621,7 @@
       <c r="F232" s="1">
         <v>0.0</v>
       </c>
-      <c r="H232" s="1" t="s">
+      <c r="G232" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6641,7 +6644,7 @@
       <c r="F233" s="1">
         <v>0.0</v>
       </c>
-      <c r="H233" s="1" t="s">
+      <c r="G233" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6664,7 +6667,7 @@
       <c r="F234" s="1">
         <v>0.0</v>
       </c>
-      <c r="H234" s="1" t="s">
+      <c r="G234" s="1" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6687,7 +6690,7 @@
       <c r="F235" s="1">
         <v>0.0</v>
       </c>
-      <c r="H235" s="1" t="s">
+      <c r="G235" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6710,7 +6713,7 @@
       <c r="F236" s="1">
         <v>0.0</v>
       </c>
-      <c r="H236" s="1" t="s">
+      <c r="G236" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6733,7 +6736,7 @@
       <c r="F237" s="1">
         <v>0.0</v>
       </c>
-      <c r="H237" s="1" t="s">
+      <c r="G237" s="1" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6756,7 +6759,7 @@
       <c r="F238" s="1">
         <v>0.0</v>
       </c>
-      <c r="H238" s="1" t="s">
+      <c r="G238" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6779,7 +6782,7 @@
       <c r="F239" s="1">
         <v>1.0</v>
       </c>
-      <c r="H239" s="1" t="s">
+      <c r="G239" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6802,7 +6805,7 @@
       <c r="F240" s="1">
         <v>1.0</v>
       </c>
-      <c r="H240" s="1" t="s">
+      <c r="G240" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6825,7 +6828,7 @@
       <c r="F241" s="1">
         <v>1.0</v>
       </c>
-      <c r="H241" s="1" t="s">
+      <c r="G241" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6848,7 +6851,7 @@
       <c r="F242" s="1">
         <v>2.0</v>
       </c>
-      <c r="H242" s="1" t="s">
+      <c r="G242" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6871,7 +6874,7 @@
       <c r="F243" s="1">
         <v>1.0</v>
       </c>
-      <c r="H243" s="1" t="s">
+      <c r="G243" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6894,7 +6897,7 @@
       <c r="F244" s="1">
         <v>0.0</v>
       </c>
-      <c r="H244" s="1" t="s">
+      <c r="G244" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6917,7 +6920,7 @@
       <c r="F245" s="1">
         <v>0.0</v>
       </c>
-      <c r="H245" s="1" t="s">
+      <c r="G245" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6940,7 +6943,7 @@
       <c r="F246" s="1">
         <v>4.0</v>
       </c>
-      <c r="H246" s="1" t="s">
+      <c r="G246" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6963,7 +6966,7 @@
       <c r="F247" s="1">
         <v>3.0</v>
       </c>
-      <c r="H247" s="1" t="s">
+      <c r="G247" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6986,7 +6989,7 @@
       <c r="F248" s="1">
         <v>1.0</v>
       </c>
-      <c r="H248" s="1" t="s">
+      <c r="G248" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -7009,7 +7012,7 @@
       <c r="F249" s="1">
         <v>0.0</v>
       </c>
-      <c r="H249" s="1" t="s">
+      <c r="G249" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -7032,7 +7035,7 @@
       <c r="F250" s="1">
         <v>0.0</v>
       </c>
-      <c r="H250" s="1" t="s">
+      <c r="G250" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7055,7 +7058,7 @@
       <c r="F251" s="1">
         <v>0.0</v>
       </c>
-      <c r="H251" s="1" t="s">
+      <c r="G251" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7078,7 +7081,7 @@
       <c r="F252" s="1">
         <v>4.0</v>
       </c>
-      <c r="H252" s="1" t="s">
+      <c r="G252" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7101,7 +7104,7 @@
       <c r="F253" s="1">
         <v>4.0</v>
       </c>
-      <c r="H253" s="1" t="s">
+      <c r="G253" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7124,7 +7127,7 @@
       <c r="F254" s="1">
         <v>4.0</v>
       </c>
-      <c r="H254" s="1" t="s">
+      <c r="G254" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7147,7 +7150,7 @@
       <c r="F255" s="1">
         <v>10.0</v>
       </c>
-      <c r="H255" s="1" t="s">
+      <c r="G255" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7170,7 +7173,7 @@
       <c r="F256" s="1">
         <v>2.0</v>
       </c>
-      <c r="H256" s="1" t="s">
+      <c r="G256" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7193,7 +7196,7 @@
       <c r="F257" s="1">
         <v>0.0</v>
       </c>
-      <c r="H257" s="1" t="s">
+      <c r="G257" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7216,7 +7219,7 @@
       <c r="F258" s="1">
         <v>0.0</v>
       </c>
-      <c r="H258" s="1" t="s">
+      <c r="G258" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7239,7 +7242,7 @@
       <c r="F259" s="1">
         <v>0.0</v>
       </c>
-      <c r="H259" s="1" t="s">
+      <c r="G259" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7262,7 +7265,7 @@
       <c r="F260" s="1">
         <v>2.0</v>
       </c>
-      <c r="H260" s="1" t="s">
+      <c r="G260" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -7285,7 +7288,7 @@
       <c r="F261" s="1">
         <v>0.0</v>
       </c>
-      <c r="H261" s="1" t="s">
+      <c r="G261" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7308,7 +7311,7 @@
       <c r="F262" s="1">
         <v>0.0</v>
       </c>
-      <c r="H262" s="1" t="s">
+      <c r="G262" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7331,7 +7334,7 @@
       <c r="F263" s="1">
         <v>0.0</v>
       </c>
-      <c r="H263" s="1" t="s">
+      <c r="G263" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7354,7 +7357,7 @@
       <c r="F264" s="1">
         <v>0.0</v>
       </c>
-      <c r="H264" s="1" t="s">
+      <c r="G264" s="1" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7377,7 +7380,7 @@
       <c r="F265" s="1">
         <v>0.0</v>
       </c>
-      <c r="H265" s="1" t="s">
+      <c r="G265" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7400,7 +7403,7 @@
       <c r="F266" s="1">
         <v>0.0</v>
       </c>
-      <c r="H266" s="1" t="s">
+      <c r="G266" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7423,7 +7426,7 @@
       <c r="F267" s="1">
         <v>1.0</v>
       </c>
-      <c r="H267" s="1" t="s">
+      <c r="G267" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7446,7 +7449,7 @@
       <c r="F268" s="1">
         <v>0.0</v>
       </c>
-      <c r="H268" s="1" t="s">
+      <c r="G268" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7469,7 +7472,7 @@
       <c r="F269" s="1">
         <v>0.0</v>
       </c>
-      <c r="H269" s="1" t="s">
+      <c r="G269" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7492,7 +7495,7 @@
       <c r="F270" s="1">
         <v>1.0</v>
       </c>
-      <c r="H270" s="1" t="s">
+      <c r="G270" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7515,7 +7518,7 @@
       <c r="F271" s="1">
         <v>0.0</v>
       </c>
-      <c r="H271" s="1" t="s">
+      <c r="G271" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7538,7 +7541,7 @@
       <c r="F272" s="1">
         <v>0.0</v>
       </c>
-      <c r="H272" s="1" t="s">
+      <c r="G272" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7561,7 +7564,7 @@
       <c r="F273" s="1">
         <v>0.0</v>
       </c>
-      <c r="H273" s="1" t="s">
+      <c r="G273" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7584,7 +7587,7 @@
       <c r="F274" s="1">
         <v>0.0</v>
       </c>
-      <c r="H274" s="1" t="s">
+      <c r="G274" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7607,7 +7610,7 @@
       <c r="F275" s="1">
         <v>0.0</v>
       </c>
-      <c r="H275" s="1" t="s">
+      <c r="G275" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7630,7 +7633,7 @@
       <c r="F276" s="1">
         <v>0.0</v>
       </c>
-      <c r="H276" s="1" t="s">
+      <c r="G276" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -7653,7 +7656,7 @@
       <c r="F277" s="1">
         <v>0.0</v>
       </c>
-      <c r="H277" s="1" t="s">
+      <c r="G277" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7676,7 +7679,7 @@
       <c r="F278" s="1">
         <v>0.0</v>
       </c>
-      <c r="H278" s="1" t="s">
+      <c r="G278" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7699,7 +7702,7 @@
       <c r="F279" s="1">
         <v>0.0</v>
       </c>
-      <c r="H279" s="1" t="s">
+      <c r="G279" s="1" t="s">
         <v>222</v>
       </c>
     </row>
@@ -7722,7 +7725,7 @@
       <c r="F280" s="1">
         <v>0.0</v>
       </c>
-      <c r="H280" s="1" t="s">
+      <c r="G280" s="1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7745,7 +7748,7 @@
       <c r="F281" s="1">
         <v>0.0</v>
       </c>
-      <c r="H281" s="1" t="s">
+      <c r="G281" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7768,7 +7771,7 @@
       <c r="F282" s="1">
         <v>0.0</v>
       </c>
-      <c r="H282" s="1" t="s">
+      <c r="G282" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7791,7 +7794,7 @@
       <c r="F283" s="1">
         <v>0.0</v>
       </c>
-      <c r="H283" s="1" t="s">
+      <c r="G283" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7814,7 +7817,7 @@
       <c r="F284" s="1">
         <v>1.0</v>
       </c>
-      <c r="H284" s="1" t="s">
+      <c r="G284" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7837,7 +7840,7 @@
       <c r="F285" s="1">
         <v>0.0</v>
       </c>
-      <c r="H285" s="1" t="s">
+      <c r="G285" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7860,7 +7863,7 @@
       <c r="F286" s="1">
         <v>0.0</v>
       </c>
-      <c r="H286" s="1" t="s">
+      <c r="G286" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7883,7 +7886,7 @@
       <c r="F287" s="1">
         <v>1.0</v>
       </c>
-      <c r="H287" s="1" t="s">
+      <c r="G287" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7906,7 +7909,7 @@
       <c r="F288" s="1">
         <v>0.0</v>
       </c>
-      <c r="H288" s="1" t="s">
+      <c r="G288" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7929,7 +7932,7 @@
       <c r="F289" s="1">
         <v>0.0</v>
       </c>
-      <c r="H289" s="1" t="s">
+      <c r="G289" s="1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7952,7 +7955,7 @@
       <c r="F290" s="1">
         <v>4.0</v>
       </c>
-      <c r="H290" s="1" t="s">
+      <c r="G290" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7975,7 +7978,7 @@
       <c r="F291" s="1">
         <v>3.0</v>
       </c>
-      <c r="H291" s="1" t="s">
+      <c r="G291" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7998,7 +8001,7 @@
       <c r="F292" s="1">
         <v>5.0</v>
       </c>
-      <c r="H292" s="1" t="s">
+      <c r="G292" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8021,7 +8024,7 @@
       <c r="F293" s="1">
         <v>3.0</v>
       </c>
-      <c r="H293" s="1" t="s">
+      <c r="G293" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8044,7 +8047,7 @@
       <c r="F294" s="1">
         <v>1.0</v>
       </c>
-      <c r="H294" s="1" t="s">
+      <c r="G294" s="1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8067,7 +8070,7 @@
       <c r="F295" s="1">
         <v>1.0</v>
       </c>
-      <c r="H295" s="1" t="s">
+      <c r="G295" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8090,7 +8093,7 @@
       <c r="F296" s="1">
         <v>1.0</v>
       </c>
-      <c r="H296" s="1" t="s">
+      <c r="G296" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8113,7 +8116,7 @@
       <c r="F297" s="1">
         <v>0.0</v>
       </c>
-      <c r="H297" s="1" t="s">
+      <c r="G297" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8136,7 +8139,7 @@
       <c r="F298" s="1">
         <v>0.0</v>
       </c>
-      <c r="H298" s="1" t="s">
+      <c r="G298" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8159,7 +8162,7 @@
       <c r="F299" s="1">
         <v>0.0</v>
       </c>
-      <c r="H299" s="1" t="s">
+      <c r="G299" s="1" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8182,7 +8185,7 @@
       <c r="F300" s="1">
         <v>0.0</v>
       </c>
-      <c r="H300" s="1" t="s">
+      <c r="G300" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8205,7 +8208,7 @@
       <c r="F301" s="1">
         <v>0.0</v>
       </c>
-      <c r="H301" s="1" t="s">
+      <c r="G301" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8228,7 +8231,7 @@
       <c r="F302" s="1">
         <v>1.0</v>
       </c>
-      <c r="H302" s="1" t="s">
+      <c r="G302" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8251,7 +8254,7 @@
       <c r="F303" s="1">
         <v>11.0</v>
       </c>
-      <c r="H303" s="1" t="s">
+      <c r="G303" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8274,7 +8277,7 @@
       <c r="F304" s="1">
         <v>0.0</v>
       </c>
-      <c r="H304" s="1" t="s">
+      <c r="G304" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8297,7 +8300,7 @@
       <c r="F305" s="1">
         <v>3.0</v>
       </c>
-      <c r="H305" s="1" t="s">
+      <c r="G305" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8320,7 +8323,7 @@
       <c r="F306" s="1">
         <v>1.0</v>
       </c>
-      <c r="H306" s="1" t="s">
+      <c r="G306" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8343,7 +8346,7 @@
       <c r="F307" s="1">
         <v>13.0</v>
       </c>
-      <c r="H307" s="1" t="s">
+      <c r="G307" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8366,7 +8369,7 @@
       <c r="F308" s="1">
         <v>1.0</v>
       </c>
-      <c r="H308" s="1" t="s">
+      <c r="G308" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8389,7 +8392,7 @@
       <c r="F309" s="1">
         <v>0.0</v>
       </c>
-      <c r="H309" s="1" t="s">
+      <c r="G309" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8412,7 +8415,7 @@
       <c r="F310" s="1">
         <v>0.0</v>
       </c>
-      <c r="H310" s="1" t="s">
+      <c r="G310" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8435,7 +8438,7 @@
       <c r="F311" s="1">
         <v>0.0</v>
       </c>
-      <c r="H311" s="1" t="s">
+      <c r="G311" s="1" t="s">
         <v>240</v>
       </c>
     </row>
@@ -8458,7 +8461,7 @@
       <c r="F312" s="1">
         <v>1.0</v>
       </c>
-      <c r="H312" s="1" t="s">
+      <c r="G312" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -8481,7 +8484,7 @@
       <c r="F313" s="1">
         <v>2.0</v>
       </c>
-      <c r="H313" s="1" t="s">
+      <c r="G313" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8504,7 +8507,7 @@
       <c r="F314" s="1">
         <v>2.0</v>
       </c>
-      <c r="H314" s="1" t="s">
+      <c r="G314" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8527,7 +8530,7 @@
       <c r="F315" s="1">
         <v>2.0</v>
       </c>
-      <c r="H315" s="1" t="s">
+      <c r="G315" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -8550,7 +8553,7 @@
       <c r="F316" s="1">
         <v>0.0</v>
       </c>
-      <c r="H316" s="1" t="s">
+      <c r="G316" s="1" t="s">
         <v>245</v>
       </c>
     </row>
@@ -8573,7 +8576,7 @@
       <c r="F317" s="1">
         <v>0.0</v>
       </c>
-      <c r="H317" s="1" t="s">
+      <c r="G317" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8596,7 +8599,7 @@
       <c r="F318" s="1">
         <v>0.0</v>
       </c>
-      <c r="H318" s="1" t="s">
+      <c r="G318" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8619,7 +8622,7 @@
       <c r="F319" s="1">
         <v>0.0</v>
       </c>
-      <c r="H319" s="1" t="s">
+      <c r="G319" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8642,7 +8645,7 @@
       <c r="F320" s="1">
         <v>0.0</v>
       </c>
-      <c r="H320" s="1" t="s">
+      <c r="G320" s="1" t="s">
         <v>240</v>
       </c>
     </row>
@@ -8665,7 +8668,7 @@
       <c r="F321" s="1">
         <v>3.0</v>
       </c>
-      <c r="H321" s="1" t="s">
+      <c r="G321" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -8688,7 +8691,7 @@
       <c r="F322" s="1">
         <v>0.0</v>
       </c>
-      <c r="H322" s="1" t="s">
+      <c r="G322" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -8711,7 +8714,7 @@
       <c r="F323" s="1">
         <v>0.0</v>
       </c>
-      <c r="H323" s="1" t="s">
+      <c r="G323" s="1" t="s">
         <v>250</v>
       </c>
     </row>
@@ -8734,7 +8737,7 @@
       <c r="F324" s="1">
         <v>0.0</v>
       </c>
-      <c r="H324" s="1" t="s">
+      <c r="G324" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8757,7 +8760,7 @@
       <c r="F325" s="1">
         <v>0.0</v>
       </c>
-      <c r="H325" s="1" t="s">
+      <c r="G325" s="1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -8780,7 +8783,7 @@
       <c r="F326" s="1">
         <v>0.0</v>
       </c>
-      <c r="H326" s="1" t="s">
+      <c r="G326" s="1" t="s">
         <v>253</v>
       </c>
     </row>
@@ -8803,7 +8806,7 @@
       <c r="F327" s="1">
         <v>0.0</v>
       </c>
-      <c r="H327" s="1" t="s">
+      <c r="G327" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -8826,7 +8829,7 @@
       <c r="F328" s="1">
         <v>0.0</v>
       </c>
-      <c r="H328" s="1" t="s">
+      <c r="G328" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -8849,7 +8852,7 @@
       <c r="F329" s="1">
         <v>3.0</v>
       </c>
-      <c r="H329" s="1" t="s">
+      <c r="G329" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8872,7 +8875,7 @@
       <c r="F330" s="1">
         <v>0.0</v>
       </c>
-      <c r="H330" s="1" t="s">
+      <c r="G330" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -8895,7 +8898,7 @@
       <c r="F331" s="1">
         <v>2.0</v>
       </c>
-      <c r="H331" s="1" t="s">
+      <c r="G331" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8918,7 +8921,7 @@
       <c r="F332" s="1">
         <v>2.0</v>
       </c>
-      <c r="H332" s="1" t="s">
+      <c r="G332" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8941,7 +8944,7 @@
       <c r="F333" s="1">
         <v>2.0</v>
       </c>
-      <c r="H333" s="1" t="s">
+      <c r="G333" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8964,7 +8967,7 @@
       <c r="F334" s="1">
         <v>1.0</v>
       </c>
-      <c r="H334" s="1" t="s">
+      <c r="G334" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -8987,7 +8990,7 @@
       <c r="F335" s="1">
         <v>0.0</v>
       </c>
-      <c r="H335" s="1" t="s">
+      <c r="G335" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9010,7 +9013,7 @@
       <c r="F336" s="1">
         <v>0.0</v>
       </c>
-      <c r="H336" s="1" t="s">
+      <c r="G336" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9033,7 +9036,7 @@
       <c r="F337" s="1">
         <v>3.0</v>
       </c>
-      <c r="H337" s="1" t="s">
+      <c r="G337" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -9056,7 +9059,7 @@
       <c r="F338" s="1">
         <v>0.0</v>
       </c>
-      <c r="H338" s="1" t="s">
+      <c r="G338" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9079,7 +9082,7 @@
       <c r="F339" s="1">
         <v>0.0</v>
       </c>
-      <c r="H339" s="1" t="s">
+      <c r="G339" s="1" t="s">
         <v>261</v>
       </c>
     </row>
@@ -9102,7 +9105,7 @@
       <c r="F340" s="1">
         <v>0.0</v>
       </c>
-      <c r="H340" s="1" t="s">
+      <c r="G340" s="1" t="s">
         <v>260</v>
       </c>
     </row>
@@ -9125,7 +9128,7 @@
       <c r="F341" s="1">
         <v>1.0</v>
       </c>
-      <c r="H341" s="1" t="s">
+      <c r="G341" s="1" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9148,7 +9151,7 @@
       <c r="F342" s="1">
         <v>0.0</v>
       </c>
-      <c r="H342" s="1" t="s">
+      <c r="G342" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -9171,7 +9174,7 @@
       <c r="F343" s="1">
         <v>1.0</v>
       </c>
-      <c r="H343" s="1" t="s">
+      <c r="G343" s="1" t="s">
         <v>267</v>
       </c>
     </row>
@@ -9194,7 +9197,7 @@
       <c r="F344" s="1">
         <v>0.0</v>
       </c>
-      <c r="H344" s="1" t="s">
+      <c r="G344" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9217,7 +9220,7 @@
       <c r="F345" s="1">
         <v>0.0</v>
       </c>
-      <c r="H345" s="1" t="s">
+      <c r="G345" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9240,7 +9243,7 @@
       <c r="F346" s="1">
         <v>0.0</v>
       </c>
-      <c r="H346" s="1" t="s">
+      <c r="G346" s="1" t="s">
         <v>245</v>
       </c>
     </row>
@@ -9263,7 +9266,7 @@
       <c r="F347" s="1">
         <v>0.0</v>
       </c>
-      <c r="H347" s="1" t="s">
+      <c r="G347" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9286,7 +9289,7 @@
       <c r="F348" s="1">
         <v>0.0</v>
       </c>
-      <c r="H348" s="1" t="s">
+      <c r="G348" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9309,7 +9312,7 @@
       <c r="F349" s="1">
         <v>0.0</v>
       </c>
-      <c r="H349" s="1" t="s">
+      <c r="G349" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9332,7 +9335,7 @@
       <c r="F350" s="1">
         <v>3.0</v>
       </c>
-      <c r="H350" s="1" t="s">
+      <c r="G350" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9355,7 +9358,7 @@
       <c r="F351" s="1">
         <v>2.0</v>
       </c>
-      <c r="H351" s="1" t="s">
+      <c r="G351" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9378,7 +9381,7 @@
       <c r="F352" s="1">
         <v>2.0</v>
       </c>
-      <c r="H352" s="1" t="s">
+      <c r="G352" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9401,7 +9404,7 @@
       <c r="F353" s="1">
         <v>2.0</v>
       </c>
-      <c r="H353" s="1" t="s">
+      <c r="G353" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9424,7 +9427,7 @@
       <c r="F354" s="1">
         <v>2.0</v>
       </c>
-      <c r="H354" s="1" t="s">
+      <c r="G354" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9447,7 +9450,7 @@
       <c r="F355" s="1">
         <v>2.0</v>
       </c>
-      <c r="H355" s="1" t="s">
+      <c r="G355" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -9470,7 +9473,7 @@
       <c r="F356" s="1">
         <v>0.0</v>
       </c>
-      <c r="H356" s="1" t="s">
+      <c r="G356" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -9493,7 +9496,7 @@
       <c r="F357" s="1">
         <v>1.0</v>
       </c>
-      <c r="H357" s="1" t="s">
+      <c r="G357" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9516,7 +9519,7 @@
       <c r="F358" s="1">
         <v>2.0</v>
       </c>
-      <c r="H358" s="1" t="s">
+      <c r="G358" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -9539,7 +9542,7 @@
       <c r="F359" s="1">
         <v>0.0</v>
       </c>
-      <c r="H359" s="1" t="s">
+      <c r="G359" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9562,7 +9565,7 @@
       <c r="F360" s="1">
         <v>0.0</v>
       </c>
-      <c r="H360" s="1" t="s">
+      <c r="G360" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -9585,7 +9588,7 @@
       <c r="F361" s="1">
         <v>0.0</v>
       </c>
-      <c r="H361" s="1" t="s">
+      <c r="G361" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9608,7 +9611,7 @@
       <c r="F362" s="1">
         <v>0.0</v>
       </c>
-      <c r="H362" s="1" t="s">
+      <c r="G362" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -9631,7 +9634,7 @@
       <c r="F363" s="1">
         <v>0.0</v>
       </c>
-      <c r="H363" s="1" t="s">
+      <c r="G363" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9654,7 +9657,7 @@
       <c r="F364" s="1">
         <v>1.0</v>
       </c>
-      <c r="H364" s="1" t="s">
+      <c r="G364" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -9677,7 +9680,7 @@
       <c r="F365" s="1">
         <v>0.0</v>
       </c>
-      <c r="H365" s="1" t="s">
+      <c r="G365" s="1" t="s">
         <v>271</v>
       </c>
     </row>
@@ -9700,7 +9703,7 @@
       <c r="F366" s="1">
         <v>0.0</v>
       </c>
-      <c r="H366" s="1" t="s">
+      <c r="G366" s="1" t="s">
         <v>270</v>
       </c>
     </row>
@@ -9723,7 +9726,7 @@
       <c r="F367" s="1">
         <v>0.0</v>
       </c>
-      <c r="H367" s="1" t="s">
+      <c r="G367" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -9746,7 +9749,7 @@
       <c r="F368" s="1">
         <v>1.0</v>
       </c>
-      <c r="H368" s="1" t="s">
+      <c r="G368" s="1" t="s">
         <v>274</v>
       </c>
     </row>
@@ -9769,7 +9772,7 @@
       <c r="F369" s="1">
         <v>0.0</v>
       </c>
-      <c r="H369" s="1" t="s">
+      <c r="G369" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9792,7 +9795,7 @@
       <c r="F370" s="1">
         <v>0.0</v>
       </c>
-      <c r="H370" s="1" t="s">
+      <c r="G370" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -9815,7 +9818,7 @@
       <c r="F371" s="1">
         <v>0.0</v>
       </c>
-      <c r="H371" s="1" t="s">
+      <c r="G371" s="1" t="s">
         <v>276</v>
       </c>
     </row>
@@ -9838,7 +9841,7 @@
       <c r="F372" s="1">
         <v>0.0</v>
       </c>
-      <c r="H372" s="1" t="s">
+      <c r="G372" s="1" t="s">
         <v>240</v>
       </c>
     </row>
@@ -9861,7 +9864,7 @@
       <c r="F373" s="1">
         <v>0.0</v>
       </c>
-      <c r="H373" s="1" t="s">
+      <c r="G373" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -9884,7 +9887,7 @@
       <c r="F374" s="1">
         <v>0.0</v>
       </c>
-      <c r="H374" s="1" t="s">
+      <c r="G374" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9907,7 +9910,7 @@
       <c r="F375" s="1">
         <v>0.0</v>
       </c>
-      <c r="H375" s="1" t="s">
+      <c r="G375" s="1" t="s">
         <v>279</v>
       </c>
     </row>
@@ -9930,7 +9933,7 @@
       <c r="F376" s="1">
         <v>0.0</v>
       </c>
-      <c r="H376" s="1" t="s">
+      <c r="G376" s="1" t="s">
         <v>281</v>
       </c>
     </row>
@@ -9953,7 +9956,7 @@
       <c r="F377" s="1">
         <v>0.0</v>
       </c>
-      <c r="H377" s="1" t="s">
+      <c r="G377" s="1" t="s">
         <v>282</v>
       </c>
     </row>
@@ -9976,7 +9979,7 @@
       <c r="F378" s="1">
         <v>0.0</v>
       </c>
-      <c r="H378" s="1" t="s">
+      <c r="G378" s="1" t="s">
         <v>219</v>
       </c>
     </row>
@@ -9999,7 +10002,7 @@
       <c r="F379" s="1">
         <v>0.0</v>
       </c>
-      <c r="H379" s="1" t="s">
+      <c r="G379" s="1" t="s">
         <v>284</v>
       </c>
     </row>
@@ -10022,7 +10025,7 @@
       <c r="F380" s="1">
         <v>0.0</v>
       </c>
-      <c r="H380" s="1" t="s">
+      <c r="G380" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -10045,7 +10048,7 @@
       <c r="F381" s="1">
         <v>0.0</v>
       </c>
-      <c r="H381" s="1" t="s">
+      <c r="G381" s="1" t="s">
         <v>285</v>
       </c>
     </row>
@@ -10068,7 +10071,7 @@
       <c r="F382" s="1">
         <v>0.0</v>
       </c>
-      <c r="H382" s="1" t="s">
+      <c r="G382" s="1" t="s">
         <v>286</v>
       </c>
     </row>
@@ -10091,7 +10094,7 @@
       <c r="F383" s="1">
         <v>12.0</v>
       </c>
-      <c r="H383" s="1" t="s">
+      <c r="G383" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10114,7 +10117,7 @@
       <c r="F384" s="1">
         <v>0.0</v>
       </c>
-      <c r="H384" s="1" t="s">
+      <c r="G384" s="1" t="s">
         <v>287</v>
       </c>
     </row>
@@ -10137,7 +10140,7 @@
       <c r="F385" s="1">
         <v>0.0</v>
       </c>
-      <c r="H385" s="1" t="s">
+      <c r="G385" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -10160,7 +10163,7 @@
       <c r="F386" s="1">
         <v>0.0</v>
       </c>
-      <c r="H386" s="1" t="s">
+      <c r="G386" s="1" t="s">
         <v>289</v>
       </c>
     </row>
@@ -10183,7 +10186,7 @@
       <c r="F387" s="1">
         <v>0.0</v>
       </c>
-      <c r="H387" s="1" t="s">
+      <c r="G387" s="1" t="s">
         <v>290</v>
       </c>
     </row>
@@ -10206,7 +10209,7 @@
       <c r="F388" s="1">
         <v>0.0</v>
       </c>
-      <c r="H388" s="1" t="s">
+      <c r="G388" s="1" t="s">
         <v>291</v>
       </c>
     </row>
@@ -10229,7 +10232,7 @@
       <c r="F389" s="1">
         <v>0.0</v>
       </c>
-      <c r="H389" s="1" t="s">
+      <c r="G389" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10252,7 +10255,7 @@
       <c r="F390" s="1">
         <v>0.0</v>
       </c>
-      <c r="H390" s="1" t="s">
+      <c r="G390" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -10275,7 +10278,7 @@
       <c r="F391" s="1">
         <v>1.0</v>
       </c>
-      <c r="H391" s="1" t="s">
+      <c r="G391" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10298,7 +10301,7 @@
       <c r="F392" s="1">
         <v>0.0</v>
       </c>
-      <c r="H392" s="1" t="s">
+      <c r="G392" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -10321,7 +10324,7 @@
       <c r="F393" s="1">
         <v>0.0</v>
       </c>
-      <c r="H393" s="1" t="s">
+      <c r="G393" s="1" t="s">
         <v>292</v>
       </c>
     </row>
@@ -10344,7 +10347,7 @@
       <c r="F394" s="1">
         <v>0.0</v>
       </c>
-      <c r="H394" s="1" t="s">
+      <c r="G394" s="1" t="s">
         <v>293</v>
       </c>
     </row>
@@ -10367,7 +10370,7 @@
       <c r="F395" s="1">
         <v>1.0</v>
       </c>
-      <c r="H395" s="1" t="s">
+      <c r="G395" s="1" t="s">
         <v>294</v>
       </c>
     </row>
@@ -10390,7 +10393,7 @@
       <c r="F396" s="1">
         <v>0.0</v>
       </c>
-      <c r="H396" s="1" t="s">
+      <c r="G396" s="1" t="s">
         <v>295</v>
       </c>
     </row>
@@ -10413,7 +10416,7 @@
       <c r="F397" s="1">
         <v>0.0</v>
       </c>
-      <c r="H397" s="1" t="s">
+      <c r="G397" s="1" t="s">
         <v>296</v>
       </c>
     </row>
@@ -10436,7 +10439,7 @@
       <c r="F398" s="1">
         <v>0.0</v>
       </c>
-      <c r="H398" s="1" t="s">
+      <c r="G398" s="1" t="s">
         <v>298</v>
       </c>
     </row>
@@ -10459,7 +10462,7 @@
       <c r="F399" s="1">
         <v>0.0</v>
       </c>
-      <c r="H399" s="1" t="s">
+      <c r="G399" s="1" t="s">
         <v>300</v>
       </c>
     </row>
@@ -11159,7 +11162,7 @@
         <v>310</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11">
@@ -11167,15 +11170,15 @@
         <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13">
@@ -11183,7 +11186,7 @@
         <v>137</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14">
@@ -11191,7 +11194,7 @@
         <v>152</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15">
@@ -11199,7 +11202,7 @@
         <v>166</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16">
@@ -11207,7 +11210,7 @@
         <v>176</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17">
@@ -11215,7 +11218,7 @@
         <v>177</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18">
@@ -11223,7 +11226,7 @@
         <v>182</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19">
@@ -11231,7 +11234,7 @@
         <v>189</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20">
@@ -11239,7 +11242,7 @@
         <v>190</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -11247,7 +11250,7 @@
         <v>191</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -11255,7 +11258,7 @@
         <v>196</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -11263,15 +11266,15 @@
         <v>210</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -11279,15 +11282,15 @@
         <v>216</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -11295,15 +11298,15 @@
         <v>217</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -11311,7 +11314,7 @@
         <v>228</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -11319,7 +11322,7 @@
         <v>237</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -11327,7 +11330,7 @@
         <v>238</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -11335,7 +11338,7 @@
         <v>246</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -11343,7 +11346,7 @@
         <v>256</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -11351,7 +11354,7 @@
         <v>268</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -11359,7 +11362,7 @@
         <v>269</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -11367,7 +11370,7 @@
         <v>277</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
